--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513DBA8-6C48-4230-95F6-B1181FB3FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3B019-634E-4A1F-B803-7478EBE4AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
   <si>
     <t>Número do caso</t>
   </si>
@@ -527,6 +527,15 @@
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t>00879757</t>
+  </si>
+  <si>
+    <t>ALMERINDA ROCHA SILVA</t>
+  </si>
+  <si>
+    <t>07/03/2024 10:09</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -641,16 +650,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,26 +967,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="40.140625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -998,7 +998,7 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1012,71 +1012,71 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7">
+        <v>26191</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E3" s="7">
         <v>34799</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
-        <v>750352</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>750352</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1090,149 +1090,149 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="7">
         <v>135992</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="7">
         <v>47505</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="7">
         <v>19869</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="7">
         <v>750352</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="9">
-        <v>34799</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>34799</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1246,19 +1246,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
+      <c r="A11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>34799</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1272,253 +1272,253 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>34799</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="7">
         <v>135992</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="7">
         <v>58475</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="7">
         <v>8157</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="7">
         <v>99999</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="7">
         <v>135992</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="7">
         <v>26191</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="7">
         <v>9236</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="7">
         <v>58475</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="9">
-        <v>19869</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>19869</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1532,149 +1532,149 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7">
+        <v>19869</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="7">
         <v>135992</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="7">
         <v>30024</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="7">
         <v>37001</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="7">
         <v>9236</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="9">
-        <v>135992</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>135992</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1688,71 +1688,71 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>105</v>
+      <c r="A28" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="9">
-        <v>9939969</v>
+      <c r="E28" s="7">
+        <v>135992</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7">
+        <v>9939969</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9">
-        <v>750352</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>750352</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -1766,19 +1766,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>115</v>
+      <c r="A31" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>750352</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -1792,19 +1792,19 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>118</v>
+      <c r="A32" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>750352</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -1818,19 +1818,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>121</v>
+      <c r="A33" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>750352</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -1844,45 +1844,45 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="9">
-        <v>19869</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>19869</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -1896,19 +1896,19 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>130</v>
+      <c r="A36" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>19869</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -1922,123 +1922,123 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>133</v>
+      <c r="A37" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="9">
-        <v>37001</v>
+        <v>29</v>
+      </c>
+      <c r="E37" s="7">
+        <v>19869</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7">
+        <v>37001</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="7">
         <v>9236</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="7">
         <v>55450</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="9">
-        <v>37001</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>37001</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -2052,54 +2052,80 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="7">
+        <v>37001</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="7">
         <v>55450</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="7">
         <v>750352</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2107,7 +2133,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A3 A4:A43" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4 A5:A44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3B019-634E-4A1F-B803-7478EBE4AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D909CCB-EC35-4829-8C15-2DC687E3AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
   <si>
     <t>Número do caso</t>
   </si>
@@ -536,13 +536,31 @@
   </si>
   <si>
     <t>07/03/2024 10:09</t>
+  </si>
+  <si>
+    <t>00890046</t>
+  </si>
+  <si>
+    <t>Diogenes Moises Pinheiro</t>
+  </si>
+  <si>
+    <t>12/03/2024 09:21</t>
+  </si>
+  <si>
+    <t>00891685</t>
+  </si>
+  <si>
+    <t>Francisco Aurelio De Freitas Santos</t>
+  </si>
+  <si>
+    <t>12/03/2024 13:38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -562,13 +580,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF56585B"/>
@@ -578,6 +589,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -627,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -641,16 +669,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1030,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1001,293 +1042,293 @@
       <c r="E1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>155</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E4" s="6">
         <v>26191</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
-        <v>34799</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="H4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E7" s="6">
         <v>750352</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E8" s="6">
         <v>135992</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E9" s="6">
         <v>47505</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E10" s="6">
         <v>19869</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E11" s="6">
         <v>750352</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E12" s="6">
         <v>34799</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7">
-        <v>34799</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7">
-        <v>34799</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1298,516 +1339,516 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E15" s="6">
         <v>135992</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E16" s="6">
         <v>58475</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E17" s="6">
         <v>8157</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E18" s="6">
         <v>99999</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="6">
         <v>135992</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="6">
         <v>26191</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="6">
         <v>9236</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="6">
         <v>58475</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E23" s="6">
         <v>19869</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E24" s="6">
         <v>19869</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E25" s="6">
         <v>135992</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E26" s="6">
         <v>30024</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E27" s="6">
         <v>37001</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E28" s="6">
         <v>9236</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E29" s="6">
         <v>135992</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E30" s="6">
         <v>135992</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E31" s="6">
         <v>9939969</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>750352</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1818,22 +1859,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>118</v>
+      <c r="A33" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>750352</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>157</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1844,22 +1885,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>121</v>
+      <c r="A34" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>750352</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -1870,74 +1911,74 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="7">
-        <v>19869</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="7">
-        <v>19869</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>19869</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1948,184 +1989,236 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E40" s="6">
         <v>37001</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E41" s="6">
         <v>9236</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E42" s="6">
         <v>55450</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E43" s="6">
         <v>37001</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E44" s="6">
         <v>37001</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E45" s="6">
         <v>55450</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E46" s="6">
         <v>750352</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H46" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2133,7 +2226,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A4 A5:A44" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A6 A7:A46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D909CCB-EC35-4829-8C15-2DC687E3AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3F4CB-8325-4506-9FF7-195A4F3A6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
   <si>
     <t>Número do caso</t>
   </si>
@@ -554,13 +554,31 @@
   </si>
   <si>
     <t>12/03/2024 13:38</t>
+  </si>
+  <si>
+    <t>00907436</t>
+  </si>
+  <si>
+    <t>Larissa de Oliveira Pereira Fonseca Monlevad</t>
+  </si>
+  <si>
+    <t>19/03/2024 12:35</t>
+  </si>
+  <si>
+    <t>00908845</t>
+  </si>
+  <si>
+    <t>Ingrid Rolim Mendes Araujo</t>
+  </si>
+  <si>
+    <t>19/03/2024 16:54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -605,6 +623,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF56585B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -678,8 +702,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,7 +714,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,157 +1079,157 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14">
+        <v>135992</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>750352</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E4" s="7">
         <v>750352</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5" s="6">
         <v>19869</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E6" s="6">
-        <v>750352</v>
+        <v>26191</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4">
+        <v>69</v>
+      </c>
+      <c r="H6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
-        <v>750352</v>
+        <v>34799</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -1210,25 +1237,25 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6">
-        <v>135992</v>
+        <v>750352</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -1236,25 +1263,25 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
-        <v>47505</v>
+        <v>750352</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1262,25 +1289,25 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1288,25 +1315,25 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
-        <v>750352</v>
+        <v>47505</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1314,25 +1341,25 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6">
-        <v>34799</v>
+        <v>19869</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -1340,25 +1367,25 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6">
-        <v>34799</v>
+        <v>750352</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -1366,16 +1393,16 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6">
         <v>34799</v>
@@ -1392,25 +1419,25 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -1418,25 +1445,25 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <v>58475</v>
+        <v>34799</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1444,25 +1471,25 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6">
-        <v>8157</v>
+        <v>135992</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -1470,25 +1497,25 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6">
-        <v>99999</v>
+        <v>58475</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1496,25 +1523,25 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6">
-        <v>135992</v>
+        <v>8157</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -1522,25 +1549,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6">
-        <v>26191</v>
+        <v>99999</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -1548,25 +1575,25 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6">
-        <v>9236</v>
+        <v>135992</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1574,25 +1601,25 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6">
-        <v>58475</v>
+        <v>26191</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1600,25 +1627,25 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="E23" s="6">
-        <v>19869</v>
+        <v>9236</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -1626,25 +1653,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E24" s="6">
-        <v>19869</v>
+        <v>58475</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -1652,25 +1679,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E25" s="6">
-        <v>135992</v>
+        <v>19869</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -1678,25 +1705,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6">
-        <v>30024</v>
+        <v>19869</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -1704,25 +1731,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6">
-        <v>37001</v>
+        <v>135992</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -1730,25 +1757,25 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="E28" s="6">
-        <v>9236</v>
+        <v>30024</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -1756,25 +1783,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E29" s="6">
-        <v>135992</v>
+        <v>37001</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -1782,25 +1809,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E30" s="6">
-        <v>135992</v>
+        <v>9236</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -1808,25 +1835,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E31" s="6">
-        <v>9939969</v>
+        <v>135992</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>158</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -1834,25 +1861,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -1860,25 +1887,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6">
-        <v>750352</v>
+        <v>9939969</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -1886,13 +1913,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -1912,13 +1939,13 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
@@ -1938,13 +1965,13 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -1964,25 +1991,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -1990,25 +2017,25 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E38" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -2016,13 +2043,13 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
@@ -2042,25 +2069,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -2068,25 +2095,25 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E41" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -2094,25 +2121,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E42" s="6">
-        <v>55450</v>
+        <v>37001</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -2120,25 +2147,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E43" s="6">
-        <v>37001</v>
+        <v>9236</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -2146,25 +2173,25 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E44" s="6">
-        <v>37001</v>
+        <v>55450</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -2172,25 +2199,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E45" s="6">
-        <v>55450</v>
+        <v>37001</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -2198,27 +2225,79 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E48" s="6">
         <v>750352</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H48" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2226,7 +2305,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A6 A7:A46" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A8 A9:A48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3F4CB-8325-4506-9FF7-195A4F3A6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2B9A4-BD0F-4E79-9D47-7702380E1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="213">
   <si>
     <t>Número do caso</t>
   </si>
@@ -572,13 +572,100 @@
   </si>
   <si>
     <t>19/03/2024 16:54</t>
+  </si>
+  <si>
+    <t>Paciente Agendamento Online Teste</t>
+  </si>
+  <si>
+    <t>27/03/2024 13:59</t>
+  </si>
+  <si>
+    <t>ONCOCLÍNICAS SANTO ANDRÉ</t>
+  </si>
+  <si>
+    <t>Digital Teste</t>
+  </si>
+  <si>
+    <t>00928414</t>
+  </si>
+  <si>
+    <t>00935222</t>
+  </si>
+  <si>
+    <t>Norma Sueli De Almeida</t>
+  </si>
+  <si>
+    <t>01/04/2024 16:59</t>
+  </si>
+  <si>
+    <t>00935335</t>
+  </si>
+  <si>
+    <t>Rosana De Giacomo Saldanha Da Gama</t>
+  </si>
+  <si>
+    <t>01/04/2024 17:24</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS IPANEMA</t>
+  </si>
+  <si>
+    <t>00939115</t>
+  </si>
+  <si>
+    <t>RAFAELA ANDRADE CRUZ BASTOS</t>
+  </si>
+  <si>
+    <t>02/04/2024 19:09</t>
+  </si>
+  <si>
+    <t>00942316</t>
+  </si>
+  <si>
+    <t>Polyana Grossi Pontes</t>
+  </si>
+  <si>
+    <t>03/04/2024 20:35</t>
+  </si>
+  <si>
+    <t>Núcleo Especializado em Oncologia (NEON) - Vila Velha</t>
+  </si>
+  <si>
+    <t>Aedra Kapitzky Dias</t>
+  </si>
+  <si>
+    <t>00944962</t>
+  </si>
+  <si>
+    <t>RAFAEL AUGUSTO CAMARGO</t>
+  </si>
+  <si>
+    <t>04/04/2024 16:03</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE CÂNCER DE MANAUS</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Wilson Marques Ramos Junior</t>
+  </si>
+  <si>
+    <t>00948732</t>
+  </si>
+  <si>
+    <t>DANIELE LINO DE LIMA</t>
+  </si>
+  <si>
+    <t>05/04/2024 17:54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -622,14 +709,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF56585B"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -679,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -714,11 +806,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,21 +1134,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1079,275 +1178,275 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="7">
         <v>135992</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>158</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E7" s="7">
         <v>750352</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>750352</v>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="15">
+        <v>158550</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4">
+        <v>158</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6">
-        <v>750352</v>
+      <c r="A9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8">
+        <v>135992</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4">
+        <v>158</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>47505</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="A11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1355,54 +1454,54 @@
       <c r="E12" s="6">
         <v>19869</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6">
-        <v>750352</v>
+        <v>26191</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4">
+        <v>69</v>
+      </c>
+      <c r="H13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
+      <c r="A14" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <v>34799</v>
@@ -1419,25 +1518,25 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6">
-        <v>34799</v>
+        <v>750352</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -1445,25 +1544,25 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>34799</v>
+        <v>750352</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
@@ -1471,13 +1570,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -1497,25 +1596,25 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
-        <v>58475</v>
+        <v>47505</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1523,25 +1622,25 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6">
-        <v>8157</v>
+        <v>19869</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -1549,25 +1648,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6">
-        <v>99999</v>
+        <v>750352</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -1575,25 +1674,25 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1601,25 +1700,25 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
-        <v>26191</v>
+        <v>34799</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1627,25 +1726,25 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
-        <v>9236</v>
+        <v>34799</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -1653,25 +1752,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6">
-        <v>58475</v>
+        <v>135992</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -1679,25 +1778,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6">
-        <v>19869</v>
+        <v>58475</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -1705,25 +1804,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E26" s="6">
-        <v>19869</v>
+        <v>8157</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -1731,25 +1830,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6">
-        <v>135992</v>
+        <v>99999</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -1757,25 +1856,25 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E28" s="6">
-        <v>30024</v>
+        <v>135992</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -1783,25 +1882,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6">
-        <v>37001</v>
+        <v>26191</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -1809,13 +1908,13 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>163</v>
@@ -1835,25 +1934,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E31" s="6">
-        <v>135992</v>
+        <v>58475</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -1861,25 +1960,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E32" s="6">
-        <v>135992</v>
+        <v>19869</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -1887,25 +1986,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E33" s="6">
-        <v>9939969</v>
+        <v>19869</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -1913,25 +2012,25 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -1939,25 +2038,25 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E35" s="6">
-        <v>750352</v>
+        <v>30024</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -1965,25 +2064,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E36" s="6">
-        <v>750352</v>
+        <v>37001</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -1991,25 +2090,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E37" s="6">
-        <v>750352</v>
+        <v>9236</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -2017,25 +2116,25 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -2043,25 +2142,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E39" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -2069,25 +2168,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6">
-        <v>19869</v>
+        <v>9939969</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -2095,25 +2194,25 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E41" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -2121,25 +2220,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E42" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -2147,25 +2246,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E43" s="6">
-        <v>9236</v>
+        <v>750352</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -2173,25 +2272,25 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6">
-        <v>55450</v>
+        <v>750352</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -2199,25 +2298,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -2225,25 +2324,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E46" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -2251,25 +2350,25 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E47" s="6">
-        <v>55450</v>
+        <v>19869</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -2277,27 +2376,209 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E55" s="6">
         <v>750352</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H55" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2305,7 +2586,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A8 A9:A48" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A15 A16:A55" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2B9A4-BD0F-4E79-9D47-7702380E1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACD378-69E0-4B4C-9658-B484AB2C940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="225">
   <si>
     <t>Número do caso</t>
   </si>
@@ -659,6 +659,42 @@
   </si>
   <si>
     <t>05/04/2024 17:54</t>
+  </si>
+  <si>
+    <t>00963230</t>
+  </si>
+  <si>
+    <t>00956562</t>
+  </si>
+  <si>
+    <t>CARMEN LUCIA FERNANDES</t>
+  </si>
+  <si>
+    <t>10/04/2024 10:35</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS ARAGUARI</t>
+  </si>
+  <si>
+    <t>Gustavo Pafume de Sa</t>
+  </si>
+  <si>
+    <t>Maria Dulce Pereira Rodrigues</t>
+  </si>
+  <si>
+    <t>12/04/2024 15:15</t>
+  </si>
+  <si>
+    <t>00966970</t>
+  </si>
+  <si>
+    <t>Celia Teixeira Andrade</t>
+  </si>
+  <si>
+    <t>15/04/2024 17:11</t>
+  </si>
+  <si>
+    <t>Renato de Lima Azambuja</t>
   </si>
 </sst>
 </file>
@@ -806,20 +842,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,226 +1214,226 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>158</v>
+        <v>849960</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="15">
+        <v>224</v>
+      </c>
+      <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
+        <v>135992</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E6" s="7">
         <v>6776</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E7" s="7">
         <v>10218</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E8" s="7">
         <v>9236</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E9" s="7">
         <v>750352</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="15">
-        <v>158550</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>750352</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1414,181 +1448,181 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>186</v>
+      </c>
+      <c r="E11" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="17">
+        <v>187</v>
+      </c>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>159</v>
+      <c r="A12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8">
+        <v>135992</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="17">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="4">
+        <v>175</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E15" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E16" s="6">
-        <v>750352</v>
+        <v>26191</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
+      <c r="A17" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -1596,25 +1630,25 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6">
-        <v>47505</v>
+        <v>750352</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1622,25 +1656,25 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
@@ -1648,25 +1682,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -1674,25 +1708,25 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
-        <v>34799</v>
+        <v>47505</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1700,25 +1734,25 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6">
-        <v>34799</v>
+        <v>19869</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1726,25 +1760,25 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6">
-        <v>34799</v>
+        <v>750352</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -1752,25 +1786,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -1778,25 +1812,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
-        <v>58475</v>
+        <v>34799</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -1804,25 +1838,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>8157</v>
+        <v>34799</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -1830,25 +1864,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6">
-        <v>99999</v>
+        <v>135992</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -1856,25 +1890,25 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6">
-        <v>135992</v>
+        <v>58475</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -1882,25 +1916,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6">
-        <v>26191</v>
+        <v>8157</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -1908,25 +1942,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6">
-        <v>9236</v>
+        <v>99999</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -1934,25 +1968,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6">
-        <v>58475</v>
+        <v>135992</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -1960,25 +1994,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6">
-        <v>19869</v>
+        <v>26191</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -1986,25 +2020,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="E33" s="6">
-        <v>19869</v>
+        <v>9236</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -2012,25 +2046,25 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E34" s="6">
-        <v>135992</v>
+        <v>58475</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -2038,25 +2072,25 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E35" s="6">
-        <v>30024</v>
+        <v>19869</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -2064,25 +2098,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -2090,25 +2124,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6">
-        <v>9236</v>
+        <v>135992</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -2116,25 +2150,25 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E38" s="6">
-        <v>135992</v>
+        <v>30024</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -2142,25 +2176,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E39" s="6">
-        <v>135992</v>
+        <v>37001</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -2168,25 +2202,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E40" s="6">
-        <v>9939969</v>
+        <v>9236</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -2194,25 +2228,25 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E41" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -2220,25 +2254,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -2246,25 +2280,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43" s="6">
-        <v>750352</v>
+        <v>9939969</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -2272,13 +2306,13 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
@@ -2298,13 +2332,13 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
@@ -2324,25 +2358,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E46" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -2350,25 +2384,25 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E47" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -2376,25 +2410,25 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E48" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
@@ -2402,25 +2436,25 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E49" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H49" s="4">
         <v>1</v>
@@ -2428,25 +2462,25 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E50" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H50" s="4">
         <v>1</v>
@@ -2454,25 +2488,25 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E51" s="6">
-        <v>55450</v>
+        <v>19869</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
@@ -2480,13 +2514,13 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -2506,25 +2540,25 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="E53" s="6">
-        <v>37001</v>
+        <v>9236</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H53" s="4">
         <v>1</v>
@@ -2532,13 +2566,13 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>50</v>
@@ -2558,27 +2592,105 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E58" s="6">
         <v>750352</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H58" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2586,7 +2698,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A15 A16:A55" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A18 A19:A58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACD378-69E0-4B4C-9658-B484AB2C940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57A93A-CDD5-4D9C-8C01-52BE1607C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
   <si>
     <t>Número do caso</t>
   </si>
@@ -695,6 +695,42 @@
   </si>
   <si>
     <t>Renato de Lima Azambuja</t>
+  </si>
+  <si>
+    <t>00969183</t>
+  </si>
+  <si>
+    <t>Alejandra Carolina Caceres Rigo</t>
+  </si>
+  <si>
+    <t>16/04/2024 13:30</t>
+  </si>
+  <si>
+    <t>00969757</t>
+  </si>
+  <si>
+    <t>Suelen Previdi Cortes Pugsley</t>
+  </si>
+  <si>
+    <t>16/04/2024 15:56</t>
+  </si>
+  <si>
+    <t>00971425</t>
+  </si>
+  <si>
+    <t>Rian Ibiapina Rosa</t>
+  </si>
+  <si>
+    <t>17/04/2024 12:17</t>
+  </si>
+  <si>
+    <t>00978457</t>
+  </si>
+  <si>
+    <t>PRISCILA FONSECA DE MOURA</t>
+  </si>
+  <si>
+    <t>19/04/2024 17:21</t>
   </si>
 </sst>
 </file>
@@ -714,11 +750,13 @@
       <sz val="12"/>
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -807,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -852,8 +890,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,182 +1250,182 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E6" s="7">
         <v>849960</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E7" s="7">
         <v>68688</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E8" s="7">
         <v>68688</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
@@ -1396,25 +1433,25 @@
     </row>
     <row r="9" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
@@ -1422,96 +1459,96 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E10" s="7">
-        <v>750352</v>
+        <v>6776</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>184</v>
+        <v>199</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>158</v>
+        <v>202</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="7">
         <v>750352</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1524,18 +1561,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7">
         <v>750352</v>
@@ -1546,187 +1583,187 @@
       <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>159</v>
+      <c r="A15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="15">
+        <v>187</v>
+      </c>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="6">
-        <v>26191</v>
+      <c r="A16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8">
+        <v>135992</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="11">
+        <v>158</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>167</v>
+      <c r="A17" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="A18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>750352</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
+        <v>170</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6">
-        <v>135992</v>
+        <v>26191</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4">
+        <v>69</v>
+      </c>
+      <c r="H20" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
+      <c r="A21" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6">
-        <v>47505</v>
+        <v>34799</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -1734,25 +1771,25 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -1760,16 +1797,16 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6">
         <v>750352</v>
@@ -1786,25 +1823,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6">
-        <v>34799</v>
+        <v>135992</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -1812,25 +1849,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
-        <v>34799</v>
+        <v>47505</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -1838,25 +1875,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6">
-        <v>34799</v>
+        <v>19869</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -1864,25 +1901,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="6">
-        <v>135992</v>
+        <v>750352</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -1890,25 +1927,25 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
-        <v>58475</v>
+        <v>34799</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
@@ -1916,25 +1953,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6">
-        <v>8157</v>
+        <v>34799</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -1942,25 +1979,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E30" s="6">
-        <v>99999</v>
+        <v>34799</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -1968,13 +2005,13 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>19</v>
@@ -1994,25 +2031,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E32" s="6">
-        <v>26191</v>
+        <v>58475</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -2020,25 +2057,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E33" s="6">
-        <v>9236</v>
+        <v>8157</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -2046,25 +2083,25 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6">
-        <v>58475</v>
+        <v>99999</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -2072,25 +2109,25 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -2098,25 +2135,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E36" s="6">
-        <v>19869</v>
+        <v>26191</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -2124,25 +2161,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E37" s="6">
-        <v>135992</v>
+        <v>9236</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -2150,25 +2187,25 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E38" s="6">
-        <v>30024</v>
+        <v>58475</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -2176,25 +2213,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -2202,25 +2239,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -2228,16 +2265,16 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E41" s="6">
         <v>135992</v>
@@ -2254,25 +2291,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E42" s="6">
-        <v>135992</v>
+        <v>30024</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -2280,25 +2317,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E43" s="6">
-        <v>9939969</v>
+        <v>37001</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -2306,25 +2343,25 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E44" s="6">
-        <v>750352</v>
+        <v>9236</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -2332,25 +2369,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E45" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -2358,25 +2395,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E46" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -2384,25 +2421,25 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="6">
-        <v>750352</v>
+        <v>9939969</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -2410,13 +2447,13 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
@@ -2436,25 +2473,25 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E49" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4">
         <v>1</v>
@@ -2462,25 +2499,25 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H50" s="4">
         <v>1</v>
@@ -2488,25 +2525,25 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
@@ -2514,25 +2551,25 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H52" s="4">
         <v>1</v>
@@ -2540,25 +2577,25 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E53" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4">
         <v>1</v>
@@ -2566,25 +2603,25 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E54" s="6">
-        <v>55450</v>
+        <v>19869</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -2592,25 +2629,25 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E55" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
@@ -2618,16 +2655,16 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E56" s="6">
         <v>37001</v>
@@ -2644,25 +2681,25 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E57" s="6">
-        <v>55450</v>
+        <v>9236</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="H57" s="4">
         <v>1</v>
@@ -2670,27 +2707,131 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E62" s="6">
         <v>750352</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H62" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2698,7 +2839,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A18 A19:A58" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A22 A23:A62" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD57A93A-CDD5-4D9C-8C01-52BE1607C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C0C684-A554-410F-BCC9-28D82709DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="323">
   <si>
     <t>Número do caso</t>
   </si>
@@ -731,6 +731,264 @@
   </si>
   <si>
     <t>19/04/2024 17:21</t>
+  </si>
+  <si>
+    <t>01006339</t>
+  </si>
+  <si>
+    <t>Thais Fernanda Leite Pinheiro</t>
+  </si>
+  <si>
+    <t>05/05/2024 11:56</t>
+  </si>
+  <si>
+    <t>01005819</t>
+  </si>
+  <si>
+    <t>Isabella Nogueira Silva</t>
+  </si>
+  <si>
+    <t>03/05/2024 17:09</t>
+  </si>
+  <si>
+    <t>01003550</t>
+  </si>
+  <si>
+    <t>AUREA MARIA CAETANO MAIO</t>
+  </si>
+  <si>
+    <t>03/05/2024 09:40</t>
+  </si>
+  <si>
+    <t>Bruno Martins Fernandes Silva</t>
+  </si>
+  <si>
+    <t>01002300</t>
+  </si>
+  <si>
+    <t>Valkiria Canetti Avelar Cerutti</t>
+  </si>
+  <si>
+    <t>02/05/2024 15:55</t>
+  </si>
+  <si>
+    <t>01000050</t>
+  </si>
+  <si>
+    <t>CELIA RODRIGUES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>01/05/2024 20:18</t>
+  </si>
+  <si>
+    <t>Fernanda Oliveira Ferraz</t>
+  </si>
+  <si>
+    <t>00999178</t>
+  </si>
+  <si>
+    <t>Adelina Maria Ferreira Regalado</t>
+  </si>
+  <si>
+    <t>30/04/2024 17:43</t>
+  </si>
+  <si>
+    <t>00997296</t>
+  </si>
+  <si>
+    <t>SILVANIRA DA SILVA MODESTO</t>
+  </si>
+  <si>
+    <t>30/04/2024 11:22</t>
+  </si>
+  <si>
+    <t>00994655</t>
+  </si>
+  <si>
+    <t>Monica Torres Lima Da Silveira</t>
+  </si>
+  <si>
+    <t>29/04/2024 13:01</t>
+  </si>
+  <si>
+    <t>CETTRO - ASA NORTE (EDIFÍCIO DE CLÍNICAS)</t>
+  </si>
+  <si>
+    <t>00994316</t>
+  </si>
+  <si>
+    <t>Juliana Pires de Albuquerque</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:48</t>
+  </si>
+  <si>
+    <t>00994293</t>
+  </si>
+  <si>
+    <t>Juliana Drummond Martins</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:44</t>
+  </si>
+  <si>
+    <t>00994275</t>
+  </si>
+  <si>
+    <t>Jorge Luis Xavier Pereira</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:42</t>
+  </si>
+  <si>
+    <t>00994252</t>
+  </si>
+  <si>
+    <t>Dariane da Silva</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:38</t>
+  </si>
+  <si>
+    <t>ICB - BIOSPHERE (ASA NORTE)</t>
+  </si>
+  <si>
+    <t>00994189</t>
+  </si>
+  <si>
+    <t>VALDENE ARAUJO PICHARA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:28</t>
+  </si>
+  <si>
+    <t>Imunomed</t>
+  </si>
+  <si>
+    <t>00994052</t>
+  </si>
+  <si>
+    <t>Eugenio Pacelli Rodrigues De Queiroz</t>
+  </si>
+  <si>
+    <t>29/04/2024 11:06</t>
+  </si>
+  <si>
+    <t>00993738</t>
+  </si>
+  <si>
+    <t>Carolina Gomes Da Silva Geraldo</t>
+  </si>
+  <si>
+    <t>29/04/2024 10:17</t>
+  </si>
+  <si>
+    <t>00993702</t>
+  </si>
+  <si>
+    <t>Thayuan Silva Yamada</t>
+  </si>
+  <si>
+    <t>29/04/2024 10:10</t>
+  </si>
+  <si>
+    <t>00993682</t>
+  </si>
+  <si>
+    <t>Ligia Alves de oliveira</t>
+  </si>
+  <si>
+    <t>29/04/2024 10:06</t>
+  </si>
+  <si>
+    <t>00993610</t>
+  </si>
+  <si>
+    <t>Josafa Rodrigues Carvalho Silva</t>
+  </si>
+  <si>
+    <t>29/04/2024 09:57</t>
+  </si>
+  <si>
+    <t>00993525</t>
+  </si>
+  <si>
+    <t>Indira Ramos Gomes</t>
+  </si>
+  <si>
+    <t>29/04/2024 09:41</t>
+  </si>
+  <si>
+    <t>00993496</t>
+  </si>
+  <si>
+    <t>Daniela Cristina Barbosa Da Cruz</t>
+  </si>
+  <si>
+    <t>29/04/2024 09:36</t>
+  </si>
+  <si>
+    <t>00993435</t>
+  </si>
+  <si>
+    <t>CAIO ALVES LEMOS</t>
+  </si>
+  <si>
+    <t>29/04/2024 09:26</t>
+  </si>
+  <si>
+    <t>00993002</t>
+  </si>
+  <si>
+    <t>Isabela Fontinele Costa Freitas</t>
+  </si>
+  <si>
+    <t>28/04/2024 18:59</t>
+  </si>
+  <si>
+    <t>00990914</t>
+  </si>
+  <si>
+    <t>26/04/2024 11:42</t>
+  </si>
+  <si>
+    <t>00989958</t>
+  </si>
+  <si>
+    <t>Ana Helena Peres Correa</t>
+  </si>
+  <si>
+    <t>25/04/2024 19:05</t>
+  </si>
+  <si>
+    <t>00982212</t>
+  </si>
+  <si>
+    <t>Maria Esther Ribera De Vargas</t>
+  </si>
+  <si>
+    <t>23/04/2024 09:56</t>
+  </si>
+  <si>
+    <t>00981426</t>
+  </si>
+  <si>
+    <t>NINA BARAUNA BEZERRA BORGES</t>
+  </si>
+  <si>
+    <t>22/04/2024 16:46</t>
+  </si>
+  <si>
+    <t>00981012</t>
+  </si>
+  <si>
+    <t>Jakeline Wnuk Teixeira</t>
+  </si>
+  <si>
+    <t>22/04/2024 15:17</t>
+  </si>
+  <si>
+    <t>Lucas Leonardo de Castro Borges</t>
   </si>
 </sst>
 </file>
@@ -845,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -890,7 +1148,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,17 +1477,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1249,391 +1521,391 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="6">
         <v>135992</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E4" s="6">
+        <v>1000918</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>19869</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>159</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="6">
         <v>849960</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>218</v>
+      <c r="A8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>209</v>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F11" s="8" t="s">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="A15" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>20</v>
+      <c r="A16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
@@ -1641,831 +1913,831 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8">
-        <v>750352</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="A18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="15">
+        <v>25190</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F20" s="6" t="s">
+        <v>25190</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="11">
+        <v>253</v>
+      </c>
+      <c r="H20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>167</v>
+      <c r="A21" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="4">
+        <v>253</v>
+      </c>
+      <c r="H21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>157</v>
+        <v>25190</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="4">
+        <v>253</v>
+      </c>
+      <c r="H22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>157</v>
+        <v>25190</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="4">
+        <v>253</v>
+      </c>
+      <c r="H23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>18</v>
+        <v>184</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>158</v>
+        <v>99999</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="4">
+        <v>61</v>
+      </c>
+      <c r="H24" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6">
-        <v>47505</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>156</v>
+        <v>750352</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="4">
+        <v>11</v>
+      </c>
+      <c r="H25" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="E26" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>159</v>
+        <v>99999</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="4">
+        <v>61</v>
+      </c>
+      <c r="H26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="E27" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>157</v>
+        <v>9236</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="4">
+        <v>73</v>
+      </c>
+      <c r="H27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F28" s="6" t="s">
+        <v>55314</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="17">
+        <v>135992</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>849960</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E34" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="G34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="G35" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E36" s="7">
         <v>135992</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="6">
-        <v>8157</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E43" s="8">
         <v>135992</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="6">
-        <v>30024</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="H43" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="4">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="A45" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E46" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E47" s="6">
-        <v>9939969</v>
+        <v>26191</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="4">
+        <v>69</v>
+      </c>
+      <c r="H47" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>109</v>
+      <c r="A48" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E48" s="6">
-        <v>750352</v>
+        <v>34799</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
@@ -2473,13 +2745,13 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -2499,16 +2771,16 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6">
         <v>750352</v>
@@ -2525,25 +2797,25 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
@@ -2551,25 +2823,25 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E52" s="6">
-        <v>750352</v>
+        <v>47505</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H52" s="4">
         <v>1</v>
@@ -2577,13 +2849,13 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>29</v>
@@ -2603,25 +2875,25 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -2629,25 +2901,25 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E55" s="6">
-        <v>19869</v>
+        <v>34799</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
@@ -2655,25 +2927,25 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E56" s="6">
-        <v>37001</v>
+        <v>34799</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="H56" s="4">
         <v>1</v>
@@ -2681,25 +2953,25 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="E57" s="6">
-        <v>9236</v>
+        <v>34799</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H57" s="4">
         <v>1</v>
@@ -2707,25 +2979,25 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E58" s="6">
-        <v>55450</v>
+        <v>135992</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H58" s="4">
         <v>1</v>
@@ -2733,25 +3005,25 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E59" s="6">
-        <v>37001</v>
+        <v>58475</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H59" s="4">
         <v>1</v>
@@ -2759,25 +3031,25 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E60" s="6">
-        <v>37001</v>
+        <v>8157</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
@@ -2785,25 +3057,25 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E61" s="6">
-        <v>55450</v>
+        <v>99999</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="H61" s="4">
         <v>1</v>
@@ -2811,27 +3083,729 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="6">
+        <v>26191</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="6">
+        <v>58475</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="6">
+        <v>30024</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="6">
+        <v>9939969</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E89" s="6">
         <v>750352</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H89" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2839,7 +3813,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A22 A23:A62" numberStoredAsText="1"/>
+    <ignoredError sqref="A29:A49 A50:A89 A2:A28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C0C684-A554-410F-BCC9-28D82709DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164D0D8-9AFB-4F1C-94E2-6E161578EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$135</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="469">
   <si>
     <t>Número do caso</t>
   </si>
@@ -862,9 +865,6 @@
     <t>29/04/2024 11:28</t>
   </si>
   <si>
-    <t>Imunomed</t>
-  </si>
-  <si>
     <t>00994052</t>
   </si>
   <si>
@@ -989,13 +989,454 @@
   </si>
   <si>
     <t>Lucas Leonardo de Castro Borges</t>
+  </si>
+  <si>
+    <t>01075317</t>
+  </si>
+  <si>
+    <t>Paulo Fernando Bebianno Rattes</t>
+  </si>
+  <si>
+    <t>06/06/2024 15:48</t>
+  </si>
+  <si>
+    <t>Paulo Antonio Oldani Felix</t>
+  </si>
+  <si>
+    <t>01074950</t>
+  </si>
+  <si>
+    <t>Aurino de Araújo Farias</t>
+  </si>
+  <si>
+    <t>06/06/2024 14:37</t>
+  </si>
+  <si>
+    <t>01074692</t>
+  </si>
+  <si>
+    <t>Gabrielle Saiz Matos Da Cunha</t>
+  </si>
+  <si>
+    <t>06/06/2024 13:36</t>
+  </si>
+  <si>
+    <t>01073602</t>
+  </si>
+  <si>
+    <t>MARCELO ROCHA FERREIRA</t>
+  </si>
+  <si>
+    <t>06/06/2024 10:49</t>
+  </si>
+  <si>
+    <t>01069509</t>
+  </si>
+  <si>
+    <t>Masra Nefretite De Abreu</t>
+  </si>
+  <si>
+    <t>04/06/2024 20:06</t>
+  </si>
+  <si>
+    <t>ICB - PÁTIO CAPITAL (TAGUATINGA)</t>
+  </si>
+  <si>
+    <t>Sasha Rubim Rocha Bender</t>
+  </si>
+  <si>
+    <t>01069444</t>
+  </si>
+  <si>
+    <t>Isadora Schiavon Cebrian</t>
+  </si>
+  <si>
+    <t>04/06/2024 18:15</t>
+  </si>
+  <si>
+    <t>01067286</t>
+  </si>
+  <si>
+    <t>EVELYN DE ALMEIDA VIEIRA MARTINS</t>
+  </si>
+  <si>
+    <t>04/06/2024 11:45</t>
+  </si>
+  <si>
+    <t>01066885</t>
+  </si>
+  <si>
+    <t>Maria Lucia Jaime</t>
+  </si>
+  <si>
+    <t>04/06/2024 10:37</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS ONCOVIDA - EDIFÍCIO ADVANCE 2ND</t>
+  </si>
+  <si>
+    <t>Hamilton Cirne Fernandes Franco</t>
+  </si>
+  <si>
+    <t>01065034</t>
+  </si>
+  <si>
+    <t>Roberto Thomazelli</t>
+  </si>
+  <si>
+    <t>03/06/2024 15:33</t>
+  </si>
+  <si>
+    <t>01064943</t>
+  </si>
+  <si>
+    <t>Juline Maria Dos Santos Trentin</t>
+  </si>
+  <si>
+    <t>03/06/2024 15:19</t>
+  </si>
+  <si>
+    <t>01055839</t>
+  </si>
+  <si>
+    <t>Raphael Dos Anjos Gomes</t>
+  </si>
+  <si>
+    <t>28/05/2024 17:56</t>
+  </si>
+  <si>
+    <t>01055325</t>
+  </si>
+  <si>
+    <t>Alexandre Da Silva</t>
+  </si>
+  <si>
+    <t>28/05/2024 15:53</t>
+  </si>
+  <si>
+    <t>01053039</t>
+  </si>
+  <si>
+    <t>IZABEL CRISTINA ZAVA</t>
+  </si>
+  <si>
+    <t>28/05/2024 08:52</t>
+  </si>
+  <si>
+    <t>01046704</t>
+  </si>
+  <si>
+    <t>Maria Goreth Resende Martins</t>
+  </si>
+  <si>
+    <t>23/05/2024 17:37</t>
+  </si>
+  <si>
+    <t>Gesmar Rodrigues Silva Segundo</t>
+  </si>
+  <si>
+    <t>01042927</t>
+  </si>
+  <si>
+    <t>Teste Check In Lais</t>
+  </si>
+  <si>
+    <t>22/05/2024 14:59</t>
+  </si>
+  <si>
+    <t>CETTRO PETIT (PEDIATRIA)</t>
+  </si>
+  <si>
+    <t>01039237</t>
+  </si>
+  <si>
+    <t>Maria Clara Moura Guimaraes</t>
+  </si>
+  <si>
+    <t>21/05/2024 12:53</t>
+  </si>
+  <si>
+    <t>01039173</t>
+  </si>
+  <si>
+    <t>Luana Iara Silva Alves</t>
+  </si>
+  <si>
+    <t>21/05/2024 12:40</t>
+  </si>
+  <si>
+    <t>01039138</t>
+  </si>
+  <si>
+    <t>Talitha Ruana Cesar Martinez Furtado</t>
+  </si>
+  <si>
+    <t>21/05/2024 12:32</t>
+  </si>
+  <si>
+    <t>01037741</t>
+  </si>
+  <si>
+    <t>Dilson Miklos Pereira</t>
+  </si>
+  <si>
+    <t>20/05/2024 18:14</t>
+  </si>
+  <si>
+    <t>01037080</t>
+  </si>
+  <si>
+    <t>Mirella Bordallo</t>
+  </si>
+  <si>
+    <t>20/05/2024 15:58</t>
+  </si>
+  <si>
+    <t>01037078</t>
+  </si>
+  <si>
+    <t>Roselene Pereira Da Costa</t>
+  </si>
+  <si>
+    <t>20/05/2024 15:57</t>
+  </si>
+  <si>
+    <t>01032410</t>
+  </si>
+  <si>
+    <t>Vinicius Marzullo</t>
+  </si>
+  <si>
+    <t>17/05/2024 11:30</t>
+  </si>
+  <si>
+    <t>01028981</t>
+  </si>
+  <si>
+    <t>PATRICIA MESQUITA FERREIRA COSTA</t>
+  </si>
+  <si>
+    <t>15/05/2024 19:59</t>
+  </si>
+  <si>
+    <t>01028979</t>
+  </si>
+  <si>
+    <t>RAFAELLA QUEIROZ LOIOLA</t>
+  </si>
+  <si>
+    <t>15/05/2024 19:53</t>
+  </si>
+  <si>
+    <t>01025832</t>
+  </si>
+  <si>
+    <t>Heruza Richopo Santos</t>
+  </si>
+  <si>
+    <t>14/05/2024 17:03</t>
+  </si>
+  <si>
+    <t>01025556</t>
+  </si>
+  <si>
+    <t>ALINE SIMÕES GUALBERTO</t>
+  </si>
+  <si>
+    <t>14/05/2024 15:58</t>
+  </si>
+  <si>
+    <t>01024386</t>
+  </si>
+  <si>
+    <t>Gabriela Gomes Leadebal</t>
+  </si>
+  <si>
+    <t>14/05/2024 11:53</t>
+  </si>
+  <si>
+    <t>01023844</t>
+  </si>
+  <si>
+    <t>Leonardo Cesar Morais Modena</t>
+  </si>
+  <si>
+    <t>14/05/2024 10:03</t>
+  </si>
+  <si>
+    <t>01023414</t>
+  </si>
+  <si>
+    <t>14/05/2024 08:17</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS MULTIHEMO BOA VIAGEM</t>
+  </si>
+  <si>
+    <t>01023319</t>
+  </si>
+  <si>
+    <t>Teste Victor TI</t>
+  </si>
+  <si>
+    <t>13/05/2024 22:09</t>
+  </si>
+  <si>
+    <t>01022996</t>
+  </si>
+  <si>
+    <t>CLAYZE TEIXEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>13/05/2024 16:53</t>
+  </si>
+  <si>
+    <t>Gina Eliane Menezes Haase Lobo</t>
+  </si>
+  <si>
+    <t>01022549</t>
+  </si>
+  <si>
+    <t>Luduvina Santos Rocca</t>
+  </si>
+  <si>
+    <t>13/05/2024 15:19</t>
+  </si>
+  <si>
+    <t>01022496</t>
+  </si>
+  <si>
+    <t>Debora Andre De Oliveira</t>
+  </si>
+  <si>
+    <t>13/05/2024 15:08</t>
+  </si>
+  <si>
+    <t>01022400</t>
+  </si>
+  <si>
+    <t>Adryelle Fabiane Campelo De Lima</t>
+  </si>
+  <si>
+    <t>13/05/2024 14:46</t>
+  </si>
+  <si>
+    <t>01022317</t>
+  </si>
+  <si>
+    <t>Marcio Michel Alves de Oliveira</t>
+  </si>
+  <si>
+    <t>13/05/2024 14:23</t>
+  </si>
+  <si>
+    <t>01020191</t>
+  </si>
+  <si>
+    <t>Jose Erivelton Holanda Cavalcante</t>
+  </si>
+  <si>
+    <t>10/05/2024 17:24</t>
+  </si>
+  <si>
+    <t>01019688</t>
+  </si>
+  <si>
+    <t>Claudia Cristina Da Silva Marciel</t>
+  </si>
+  <si>
+    <t>10/05/2024 15:26</t>
+  </si>
+  <si>
+    <t>Ronaldo Maciel Dias</t>
+  </si>
+  <si>
+    <t>01019532</t>
+  </si>
+  <si>
+    <t>Eloiza Cavalcante Marques</t>
+  </si>
+  <si>
+    <t>10/05/2024 14:50</t>
+  </si>
+  <si>
+    <t>01019518</t>
+  </si>
+  <si>
+    <t>Moema Gomes De Faria</t>
+  </si>
+  <si>
+    <t>10/05/2024 14:46</t>
+  </si>
+  <si>
+    <t>01019491</t>
+  </si>
+  <si>
+    <t>Paula De Barros Bandarra Bacarissa</t>
+  </si>
+  <si>
+    <t>10/05/2024 14:37</t>
+  </si>
+  <si>
+    <t>01019475</t>
+  </si>
+  <si>
+    <t>Bruno Passos Gaioso Rocha</t>
+  </si>
+  <si>
+    <t>10/05/2024 14:31</t>
+  </si>
+  <si>
+    <t>01017351</t>
+  </si>
+  <si>
+    <t>Ana Maria Campos De Carvalho</t>
+  </si>
+  <si>
+    <t>09/05/2024 16:35</t>
+  </si>
+  <si>
+    <t>01017273</t>
+  </si>
+  <si>
+    <t>RICARDO CLAUDINO PESSANHA</t>
+  </si>
+  <si>
+    <t>09/05/2024 16:13</t>
+  </si>
+  <si>
+    <t>01014499</t>
+  </si>
+  <si>
+    <t>Talita Sathler Garcia</t>
+  </si>
+  <si>
+    <t>08/05/2024 15:38</t>
+  </si>
+  <si>
+    <t>01011456</t>
+  </si>
+  <si>
+    <t>Amanda Czocher</t>
+  </si>
+  <si>
+    <t>07/05/2024 14:40</t>
+  </si>
+  <si>
+    <t>01011286</t>
+  </si>
+  <si>
+    <t>Maria José da Silva</t>
+  </si>
+  <si>
+    <t>07/05/2024 13:57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1057,6 +1498,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1103,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1148,7 +1594,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,9 +1624,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1955,7 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1522,1938 +1987,1938 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8157</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1000918</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="22">
+        <v>18615</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="22">
+        <v>14517</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E10" s="22">
+        <v>37001</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="G10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="22">
+        <v>37001</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="22">
+        <v>32969</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="22">
+        <v>158550</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22">
         <v>135992</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F18" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1000918</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G20" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E24" s="22">
         <v>25190</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F24" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G24" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>849960</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="22">
+        <v>6776</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="22">
+        <v>478659</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="6">
-        <v>55314</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="G28" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="22">
         <v>135992</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E30" s="22">
+        <v>158550</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="22">
+        <v>158550</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="22">
+        <v>12710</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="22">
+        <v>9236</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E46" s="22">
+        <v>19869</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="G46" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="22">
+        <v>47505</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E48" s="23">
+        <v>19869</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7">
-        <v>849960</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="8">
-        <v>750352</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="G48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="H48" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E49" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>157</v>
+        <v>135992</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="4">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F50" s="6" t="s">
+        <v>1000918</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="4">
+        <v>246</v>
+      </c>
+      <c r="H50" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>18</v>
+        <v>248</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E51" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>158</v>
+        <v>19869</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="4">
+        <v>30</v>
+      </c>
+      <c r="H51" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E52" s="6">
-        <v>47505</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="4">
+        <v>253</v>
+      </c>
+      <c r="H52" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E53" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>159</v>
+        <v>849960</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="4">
+        <v>224</v>
+      </c>
+      <c r="H53" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>157</v>
+        <v>99999</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="4">
+        <v>61</v>
+      </c>
+      <c r="H54" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="E55" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="4">
+        <v>253</v>
+      </c>
+      <c r="H55" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E56" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="4">
+        <v>253</v>
+      </c>
+      <c r="H56" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E57" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="4">
+        <v>253</v>
+      </c>
+      <c r="H57" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E58" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>158</v>
+        <v>25190</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="4">
+        <v>253</v>
+      </c>
+      <c r="H58" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="E59" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H59" s="4">
+        <v>253</v>
+      </c>
+      <c r="H59" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="E60" s="6">
-        <v>8157</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>160</v>
+        <v>9236</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="4">
+        <v>73</v>
+      </c>
+      <c r="H60" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>161</v>
+        <v>25190</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="4">
+        <v>253</v>
+      </c>
+      <c r="H61" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E62" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>158</v>
+        <v>25190</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="4">
+        <v>253</v>
+      </c>
+      <c r="H62" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E63" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F63" s="6" t="s">
+        <v>25190</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="4">
+        <v>253</v>
+      </c>
+      <c r="H63" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E64" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>162</v>
+        <v>25190</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="4">
+        <v>253</v>
+      </c>
+      <c r="H64" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E65" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>156</v>
+        <v>25190</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" s="4">
+        <v>253</v>
+      </c>
+      <c r="H65" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E66" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>159</v>
+        <v>25190</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="4">
+        <v>253</v>
+      </c>
+      <c r="H66" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E67" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>159</v>
+        <v>25190</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="4">
+        <v>253</v>
+      </c>
+      <c r="H67" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E68" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>158</v>
+        <v>25190</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="4">
+        <v>253</v>
+      </c>
+      <c r="H68" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E69" s="6">
-        <v>30024</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>161</v>
+        <v>25190</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="4">
+        <v>253</v>
+      </c>
+      <c r="H69" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E70" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>159</v>
+        <v>99999</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70" s="4">
+        <v>61</v>
+      </c>
+      <c r="H70" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="E71" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>162</v>
+        <v>750352</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="4">
+        <v>11</v>
+      </c>
+      <c r="H71" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="E72" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>158</v>
+        <v>99999</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="4">
+        <v>61</v>
+      </c>
+      <c r="H72" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E73" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>158</v>
+        <v>9236</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="4">
+        <v>73</v>
+      </c>
+      <c r="H73" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="6">
+        <v>55314</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="6">
-        <v>9939969</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E75" s="16">
+        <v>135992</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>10</v>
@@ -3461,351 +3926,1547 @@
       <c r="E76" s="6">
         <v>750352</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="7">
+        <v>849960</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="7">
+        <v>135992</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H88" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="8">
+        <v>135992</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="6">
+        <v>26191</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H93" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="6">
+        <v>47505</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" s="6">
+        <v>58475</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="6">
+        <v>8157</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="6">
+        <v>26191</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="6">
+        <v>58475</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115" s="6">
+        <v>30024</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="6">
+        <v>9939969</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E123" s="6">
         <v>750352</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="H123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E124" s="6">
         <v>750352</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="H124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E125" s="6">
         <v>750352</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="H125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E126" s="6">
         <v>19869</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E127" s="6">
         <v>19869</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E128" s="6">
         <v>19869</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F128" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="H128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E129" s="6">
         <v>37001</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F129" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="H129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E130" s="6">
         <v>9236</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="H130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E131" s="6">
         <v>55450</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F131" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="H131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E132" s="6">
         <v>37001</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F132" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="H132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E133" s="6">
         <v>37001</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F133" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E134" s="6">
         <v>55450</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="H134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E135" s="6">
         <v>750352</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F135" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H135" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3813,7 +5474,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A29:A49 A50:A89 A2:A28" numberStoredAsText="1"/>
+    <ignoredError sqref="A75:A95 A96:A135 A48:A74 A2:A47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164D0D8-9AFB-4F1C-94E2-6E161578EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA15D95-8AA9-4FE4-8753-4E7CBD3103D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="507">
   <si>
     <t>Número do caso</t>
   </si>
@@ -1430,6 +1430,120 @@
   </si>
   <si>
     <t>07/05/2024 13:57</t>
+  </si>
+  <si>
+    <t>Luiza Fernandes Maia</t>
+  </si>
+  <si>
+    <t>21/06/2024 12:58</t>
+  </si>
+  <si>
+    <t>Gutemberg Augusto Cruz dos Santos</t>
+  </si>
+  <si>
+    <t>PAULA CRISTINA PAULON DE MATTOS</t>
+  </si>
+  <si>
+    <t>21/06/2024 12:19</t>
+  </si>
+  <si>
+    <t>Treinamento Dra Debora</t>
+  </si>
+  <si>
+    <t>21/06/2024 08:24</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS NOB LAURO DE FREITAS</t>
+  </si>
+  <si>
+    <t>FERNANDA CHRISTINA SILVA COELHO ROMARIZ</t>
+  </si>
+  <si>
+    <t>20/06/2024 12:09</t>
+  </si>
+  <si>
+    <t>Daniel Veríssimo De Castro</t>
+  </si>
+  <si>
+    <t>19/06/2024 09:24</t>
+  </si>
+  <si>
+    <t>MICHAEL PETERSON OLANO MORGANTTI PEDROSO</t>
+  </si>
+  <si>
+    <t>18/06/2024 23:42</t>
+  </si>
+  <si>
+    <t>Betsaida Capile Tunes</t>
+  </si>
+  <si>
+    <t>18/06/2024 23:38</t>
+  </si>
+  <si>
+    <t>Anne Cristine Dos Santos Tavares</t>
+  </si>
+  <si>
+    <t>18/06/2024 23:34</t>
+  </si>
+  <si>
+    <t>Aelda De Oliveira Silva Ribeiro</t>
+  </si>
+  <si>
+    <t>18/06/2024 23:30</t>
+  </si>
+  <si>
+    <t>Tulio Roberto Rosa Cruz</t>
+  </si>
+  <si>
+    <t>18/06/2024 19:47</t>
+  </si>
+  <si>
+    <t>Maria De Lourdes Carvalho Neiva</t>
+  </si>
+  <si>
+    <t>18/06/2024 17:41</t>
+  </si>
+  <si>
+    <t>Natalia Solon Nery</t>
+  </si>
+  <si>
+    <t>Rebeca Bavaresco Medina</t>
+  </si>
+  <si>
+    <t>18/06/2024 16:36</t>
+  </si>
+  <si>
+    <t>Alexandre Duarte Sousa</t>
+  </si>
+  <si>
+    <t>17/06/2024 12:40</t>
+  </si>
+  <si>
+    <t>Natalia Nasser Ximenes</t>
+  </si>
+  <si>
+    <t>Maria Julia Salessi Bellucci</t>
+  </si>
+  <si>
+    <t>17/06/2024 11:35</t>
+  </si>
+  <si>
+    <t>Jacqueline Myrna da Silva Pacheco</t>
+  </si>
+  <si>
+    <t>14/06/2024 10:20</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS ALIANÇA CRISPIM (ASA NORTE)</t>
+  </si>
+  <si>
+    <t>CLAUDIA DENISE DE SOUZA VIANA</t>
+  </si>
+  <si>
+    <t>12/06/2024 09:02</t>
+  </si>
+  <si>
+    <t>Luma Alem Martins</t>
   </si>
 </sst>
 </file>
@@ -1615,19 +1729,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,21 +2056,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1986,469 +2100,469 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1113358</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="6">
+        <v>754005</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1113213</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1112005</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>1109961</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>1105530</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>1104971</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1104969</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>1104968</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>1104967</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>1104960</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>1104731</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <v>15423</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>1104497</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>1099244</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="6">
+        <v>22402</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>1098769</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>1094421</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E16" s="6">
+        <v>14517</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>1086986</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6">
+        <v>24195</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B18" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C18" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E18" s="25">
         <v>478659</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F18" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G18" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="22">
-        <v>8157</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1000918</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="22">
-        <v>18615</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="22">
-        <v>14517</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="22">
-        <v>32969</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="22">
-        <v>158550</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="H18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E19" s="22">
-        <v>135992</v>
+        <v>8157</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -2456,25 +2570,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E20" s="22">
-        <v>478659</v>
+        <v>135992</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
@@ -2482,25 +2596,25 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="22">
-        <v>478659</v>
+        <v>1000918</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="H21" s="12">
         <v>1</v>
@@ -2508,25 +2622,25 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="E22" s="22">
-        <v>478659</v>
+        <v>18615</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H22" s="12">
         <v>1</v>
@@ -2534,25 +2648,25 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="22">
-        <v>478659</v>
+        <v>135992</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
@@ -2560,25 +2674,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E24" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H24" s="12">
         <v>1</v>
@@ -2586,25 +2700,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="E25" s="22">
-        <v>25190</v>
+        <v>14517</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -2612,25 +2726,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E26" s="22">
-        <v>135992</v>
+        <v>37001</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H26" s="12">
         <v>1</v>
@@ -2638,25 +2752,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="E27" s="22">
-        <v>6776</v>
+        <v>37001</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -2664,13 +2778,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>15</v>
@@ -2690,25 +2804,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E29" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -2716,25 +2830,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>415</v>
+        <v>195</v>
       </c>
       <c r="E30" s="22">
-        <v>158550</v>
+        <v>478659</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -2742,25 +2856,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E31" s="22">
-        <v>158550</v>
+        <v>32969</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -2768,25 +2882,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="E32" s="22">
-        <v>12468</v>
+        <v>158550</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
@@ -2794,25 +2908,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="E33" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H33" s="12">
         <v>1</v>
@@ -2820,13 +2934,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>19</v>
@@ -2846,25 +2960,25 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E35" s="22">
-        <v>12468</v>
+        <v>135992</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="H35" s="12">
         <v>1</v>
@@ -2872,25 +2986,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E36" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
@@ -2898,25 +3012,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="E37" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H37" s="12">
         <v>1</v>
@@ -2924,25 +3038,25 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E38" s="22">
-        <v>12710</v>
+        <v>478659</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>441</v>
+        <v>325</v>
       </c>
       <c r="H38" s="12">
         <v>1</v>
@@ -2950,25 +3064,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E39" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -2976,16 +3090,16 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E40" s="22">
         <v>25190</v>
@@ -3002,16 +3116,16 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E41" s="22">
         <v>25190</v>
@@ -3028,25 +3142,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E42" s="22">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -3054,25 +3168,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="E43" s="22">
-        <v>12468</v>
+        <v>6776</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="H43" s="12">
         <v>1</v>
@@ -3080,25 +3194,25 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>409</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="E44" s="22">
-        <v>9236</v>
+        <v>478659</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="H44" s="12">
         <v>1</v>
@@ -3106,25 +3220,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E45" s="22">
-        <v>12468</v>
+        <v>135992</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="H45" s="12">
         <v>1</v>
@@ -3132,25 +3246,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="E46" s="22">
-        <v>19869</v>
+        <v>158550</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="H46" s="12">
         <v>1</v>
@@ -3158,467 +3272,467 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="E47" s="22">
-        <v>47505</v>
+        <v>158550</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H47" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="23">
-        <v>19869</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="26">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H48" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="A49" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="22">
         <v>135992</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1000918</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="8">
+      <c r="H50" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="A51" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H51" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="A52" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E54" s="22">
+        <v>12710</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="22">
         <v>25190</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F55" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G55" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6">
-        <v>849960</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="H55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="22">
         <v>25190</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F56" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="H56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="22">
         <v>25190</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F57" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="H57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="22">
         <v>25190</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F58" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H57" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F59" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E59" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H59" s="8">
+      <c r="G59" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H59" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>279</v>
+      <c r="A60" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>459</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="22">
         <v>9236</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="A61" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F61" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="G61" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H61" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H62" s="8">
+      <c r="A62" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="22">
+        <v>19869</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="A63" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="22">
+        <v>47505</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="6">
-        <v>25190</v>
+      <c r="A64" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="16">
+        <v>19869</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>253</v>
+        <v>159</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="H64" s="8">
         <v>1</v>
@@ -3626,25 +3740,25 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E65" s="6">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H65" s="8">
         <v>1</v>
@@ -3652,25 +3766,25 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E66" s="6">
-        <v>25190</v>
+        <v>1000918</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H66" s="8">
         <v>1</v>
@@ -3678,25 +3792,25 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E67" s="6">
-        <v>25190</v>
+        <v>19869</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="H67" s="8">
         <v>1</v>
@@ -3704,16 +3818,16 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E68" s="6">
         <v>25190</v>
@@ -3730,25 +3844,25 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E69" s="6">
-        <v>25190</v>
+        <v>849960</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H69" s="8">
         <v>1</v>
@@ -3756,13 +3870,13 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>10</v>
@@ -3782,25 +3896,25 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="E71" s="6">
-        <v>750352</v>
+        <v>25190</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="H71" s="8">
         <v>1</v>
@@ -3808,25 +3922,25 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E72" s="6">
-        <v>99999</v>
+        <v>25190</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H72" s="8">
         <v>1</v>
@@ -3834,25 +3948,25 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E73" s="6">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H73" s="8">
         <v>1</v>
@@ -3860,362 +3974,362 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E74" s="6">
-        <v>55314</v>
+        <v>25190</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H74" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="16">
-        <v>135992</v>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="6">
+        <v>25190</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H75" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H77" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H78" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="7">
-        <v>849960</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H79" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E84" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E86" s="7">
-        <v>750352</v>
+      <c r="E86" s="6">
+        <v>99999</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H86" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="9" t="s">
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>750352</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="8">
@@ -4223,52 +4337,52 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E88" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H88" s="12">
+      <c r="A88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>20</v>
+      <c r="A89" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H89" s="8">
         <v>1</v>
@@ -4276,507 +4390,507 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="6">
+        <v>55314</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="16">
+        <v>135992</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="7">
+        <v>849960</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="7">
+        <v>135992</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E103" s="7">
         <v>750352</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E93" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H93" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="6">
-        <v>47505</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" s="4">
+      <c r="H103" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="6">
-        <v>135992</v>
+      <c r="A104" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="8">
+        <v>158550</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H104" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="8">
+        <v>135992</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" s="4">
+      <c r="H105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="6">
-        <v>8157</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H106" s="4">
+        <v>15</v>
+      </c>
+      <c r="E106" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="A107" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E108" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>68</v>
@@ -4790,31 +4904,31 @@
       <c r="G109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>70</v>
+      <c r="A110" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="E110" s="6">
-        <v>9236</v>
+        <v>34799</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H110" s="4">
         <v>1</v>
@@ -4822,25 +4936,25 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E111" s="6">
-        <v>58475</v>
+        <v>750352</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H111" s="4">
         <v>1</v>
@@ -4848,25 +4962,25 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E112" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H112" s="4">
         <v>1</v>
@@ -4874,25 +4988,25 @@
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E113" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H113" s="4">
         <v>1</v>
@@ -4900,25 +5014,25 @@
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E114" s="6">
-        <v>135992</v>
+        <v>47505</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H114" s="4">
         <v>1</v>
@@ -4926,25 +5040,25 @@
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E115" s="6">
-        <v>30024</v>
+        <v>19869</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H115" s="4">
         <v>1</v>
@@ -4952,25 +5066,25 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E116" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H116" s="4">
         <v>1</v>
@@ -4978,25 +5092,25 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="E117" s="6">
-        <v>9236</v>
+        <v>34799</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H117" s="4">
         <v>1</v>
@@ -5004,25 +5118,25 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E118" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H118" s="4">
         <v>1</v>
@@ -5030,25 +5144,25 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E119" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H119" s="4">
         <v>1</v>
@@ -5056,25 +5170,25 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E120" s="6">
-        <v>9939969</v>
+        <v>135992</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>158</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H120" s="4">
         <v>1</v>
@@ -5082,25 +5196,25 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E121" s="6">
-        <v>750352</v>
+        <v>58475</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H121" s="4">
         <v>1</v>
@@ -5108,25 +5222,25 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E122" s="6">
-        <v>750352</v>
+        <v>8157</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H122" s="4">
         <v>1</v>
@@ -5134,25 +5248,25 @@
     </row>
     <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E123" s="6">
-        <v>750352</v>
+        <v>99999</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -5160,25 +5274,25 @@
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E124" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -5186,25 +5300,25 @@
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E125" s="6">
-        <v>750352</v>
+        <v>26191</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H125" s="4">
         <v>1</v>
@@ -5212,25 +5326,25 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="E126" s="6">
-        <v>19869</v>
+        <v>9236</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H126" s="4">
         <v>1</v>
@@ -5238,25 +5352,25 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E127" s="6">
-        <v>19869</v>
+        <v>58475</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -5264,13 +5378,13 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>29</v>
@@ -5290,25 +5404,25 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E129" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -5316,25 +5430,25 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E130" s="6">
-        <v>9236</v>
+        <v>135992</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -5342,25 +5456,25 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E131" s="6">
-        <v>55450</v>
+        <v>30024</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -5368,16 +5482,16 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E132" s="6">
         <v>37001</v>
@@ -5394,25 +5508,25 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="E133" s="6">
-        <v>37001</v>
+        <v>9236</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H133" s="4">
         <v>1</v>
@@ -5420,25 +5534,25 @@
     </row>
     <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E134" s="6">
-        <v>55450</v>
+        <v>135992</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H134" s="4">
         <v>1</v>
@@ -5446,27 +5560,443 @@
     </row>
     <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="6">
+        <v>9939969</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E151" s="6">
         <v>750352</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F151" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H151" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5474,7 +6004,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A75:A95 A96:A135 A48:A74 A2:A47" numberStoredAsText="1"/>
+    <ignoredError sqref="A91:A111 A112:A151 A64:A90 A18:A63" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA15D95-8AA9-4FE4-8753-4E7CBD3103D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7792A8-0E51-42D4-B213-7240D65E1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$156</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="539">
   <si>
     <t>Número do caso</t>
   </si>
@@ -1544,6 +1544,102 @@
   </si>
   <si>
     <t>Luma Alem Martins</t>
+  </si>
+  <si>
+    <t>01130475</t>
+  </si>
+  <si>
+    <t>01125872</t>
+  </si>
+  <si>
+    <t>01125307</t>
+  </si>
+  <si>
+    <t>01122420</t>
+  </si>
+  <si>
+    <t>01118404</t>
+  </si>
+  <si>
+    <t>01113358</t>
+  </si>
+  <si>
+    <t>01113213</t>
+  </si>
+  <si>
+    <t>01112005</t>
+  </si>
+  <si>
+    <t>01109961</t>
+  </si>
+  <si>
+    <t>01105530</t>
+  </si>
+  <si>
+    <t>01104971</t>
+  </si>
+  <si>
+    <t>01104969</t>
+  </si>
+  <si>
+    <t>01104968</t>
+  </si>
+  <si>
+    <t>01104967</t>
+  </si>
+  <si>
+    <t>01104960</t>
+  </si>
+  <si>
+    <t>01104731</t>
+  </si>
+  <si>
+    <t>01104497</t>
+  </si>
+  <si>
+    <t>01099244</t>
+  </si>
+  <si>
+    <t>01098769</t>
+  </si>
+  <si>
+    <t>01094421</t>
+  </si>
+  <si>
+    <t>01086986</t>
+  </si>
+  <si>
+    <t>Paulo Andre Silva Campos</t>
+  </si>
+  <si>
+    <t>Camila Do Carmo Faria Pimentel</t>
+  </si>
+  <si>
+    <t>Rodrigo Caetano Nogueira De Araujo Silva</t>
+  </si>
+  <si>
+    <t>MARIA LUCIA OSSIPI MARTINS BOTELHO</t>
+  </si>
+  <si>
+    <t>Sabrina Trica Rocha</t>
+  </si>
+  <si>
+    <t>28/06/2024 13:18</t>
+  </si>
+  <si>
+    <t>26/06/2024 19:00</t>
+  </si>
+  <si>
+    <t>26/06/2024 16:08</t>
+  </si>
+  <si>
+    <t>25/06/2024 20:31</t>
+  </si>
+  <si>
+    <t>24/06/2024 17:21</t>
+  </si>
+  <si>
+    <t>Fernando do Espirito Santo Soares</t>
   </si>
 </sst>
 </file>
@@ -1616,6 +1712,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1663,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1729,18 +1826,24 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2056,21 +2159,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2100,119 +2203,119 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1113358</v>
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>507</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6">
-        <v>754005</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>12003</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>478659</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1113213</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>1112005</v>
+    <row r="4" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>476</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>161</v>
+        <v>750352</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1109961</v>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>510</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="E5" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>24195</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>1105530</v>
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>511</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>55</v>
@@ -2220,7 +2323,7 @@
       <c r="E6" s="6">
         <v>25190</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="29" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2230,93 +2333,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>1104971</v>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="E7" s="6">
-        <v>25190</v>
+        <v>754005</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>1104969</v>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>513</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6">
-        <v>25190</v>
+        <v>34799</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>1104968</v>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>514</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>476</v>
       </c>
       <c r="E9" s="6">
-        <v>25190</v>
+        <v>99999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>1104967</v>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>515</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
@@ -2334,15 +2437,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>1104960</v>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>516</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -2360,313 +2463,313 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>1104731</v>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="6">
-        <v>15423</v>
+        <v>25190</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>1104497</v>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>518</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6">
-        <v>135992</v>
+        <v>25190</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>1099244</v>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>519</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6">
-        <v>22402</v>
+        <v>25190</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>498</v>
+        <v>253</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>1098769</v>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>520</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6">
-        <v>135992</v>
+        <v>25190</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>1094421</v>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>521</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>503</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6">
-        <v>14517</v>
+        <v>25190</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>1086986</v>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>522</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6">
-        <v>24195</v>
+        <v>15423</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="6">
+        <v>22402</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="6">
+        <v>14517</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6">
+        <v>24195</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E23" s="23">
         <v>478659</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F23" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G23" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="22">
-        <v>8157</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1000918</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" s="22">
-        <v>18615</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
@@ -2674,25 +2777,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E24" s="22">
-        <v>478659</v>
+        <v>8157</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="H24" s="12">
         <v>1</v>
@@ -2700,25 +2803,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="E25" s="22">
-        <v>14517</v>
+        <v>135992</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -2726,25 +2829,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E26" s="22">
-        <v>37001</v>
+        <v>1000918</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="H26" s="12">
         <v>1</v>
@@ -2752,25 +2855,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="E27" s="22">
-        <v>37001</v>
+        <v>18615</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -2778,25 +2881,25 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" s="22">
-        <v>478659</v>
+        <v>135992</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -2804,16 +2907,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="22">
         <v>478659</v>
@@ -2830,25 +2933,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
       <c r="E30" s="22">
-        <v>478659</v>
+        <v>14517</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -2856,25 +2959,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E31" s="22">
-        <v>32969</v>
+        <v>37001</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>369</v>
+        <v>94</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -2882,25 +2985,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="E32" s="22">
-        <v>158550</v>
+        <v>37001</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
@@ -2908,13 +3011,13 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>15</v>
@@ -2934,25 +3037,25 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H34" s="12">
         <v>1</v>
@@ -2960,25 +3063,25 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="E35" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H35" s="12">
         <v>1</v>
@@ -2986,25 +3089,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E36" s="22">
-        <v>478659</v>
+        <v>32969</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
@@ -3012,25 +3115,25 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="E37" s="22">
-        <v>478659</v>
+        <v>158550</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="H37" s="12">
         <v>1</v>
@@ -3038,13 +3141,13 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>15</v>
@@ -3064,25 +3167,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E39" s="22">
-        <v>478659</v>
+        <v>135992</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -3090,25 +3193,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E40" s="22">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H40" s="12">
         <v>1</v>
@@ -3116,25 +3219,25 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E41" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -3142,25 +3245,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -3168,25 +3271,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="E43" s="22">
-        <v>6776</v>
+        <v>478659</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="H43" s="12">
         <v>1</v>
@@ -3194,13 +3297,13 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>15</v>
@@ -3220,25 +3323,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E45" s="22">
-        <v>135992</v>
+        <v>25190</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H45" s="12">
         <v>1</v>
@@ -3246,25 +3349,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>108</v>
+        <v>399</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>415</v>
+        <v>60</v>
       </c>
       <c r="E46" s="22">
-        <v>158550</v>
+        <v>25190</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="H46" s="12">
         <v>1</v>
@@ -3272,25 +3375,25 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E47" s="22">
-        <v>158550</v>
+        <v>135992</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="H47" s="12">
         <v>1</v>
@@ -3298,25 +3401,25 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="E48" s="22">
-        <v>12468</v>
+        <v>6776</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="H48" s="12">
         <v>1</v>
@@ -3324,25 +3427,25 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="E49" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H49" s="12">
         <v>1</v>
@@ -3350,13 +3453,13 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>19</v>
@@ -3376,25 +3479,25 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="E51" s="22">
-        <v>12468</v>
+        <v>158550</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="H51" s="12">
         <v>1</v>
@@ -3402,25 +3505,25 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E52" s="22">
-        <v>12468</v>
+        <v>158550</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="H52" s="12">
         <v>1</v>
@@ -3428,16 +3531,16 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="E53" s="22">
         <v>12468</v>
@@ -3454,25 +3557,25 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="E54" s="22">
-        <v>12710</v>
+        <v>12468</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
@@ -3480,25 +3583,25 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E55" s="22">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
@@ -3506,25 +3609,25 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="E56" s="22">
-        <v>25190</v>
+        <v>12468</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="H56" s="12">
         <v>1</v>
@@ -3532,25 +3635,25 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E57" s="22">
-        <v>25190</v>
+        <v>12468</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="H57" s="12">
         <v>1</v>
@@ -3558,25 +3661,25 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="E58" s="22">
-        <v>25190</v>
+        <v>12468</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="H58" s="12">
         <v>1</v>
@@ -3584,25 +3687,25 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="E59" s="22">
-        <v>12468</v>
+        <v>12710</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
@@ -3610,25 +3713,25 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>163</v>
+        <v>444</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E60" s="22">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -3636,25 +3739,25 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="22">
-        <v>12468</v>
+        <v>25190</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="H61" s="12">
         <v>1</v>
@@ -3662,25 +3765,25 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E62" s="22">
-        <v>19869</v>
+        <v>25190</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="H62" s="12">
         <v>1</v>
@@ -3688,181 +3791,181 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="22">
+        <v>9236</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="22">
+        <v>19869</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B68" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E68" s="22">
         <v>47505</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F68" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G68" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="H68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B69" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E69" s="16">
         <v>19869</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G69" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="H64" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1000918</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6">
-        <v>849960</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="H69" s="8">
         <v>1</v>
@@ -3870,25 +3973,25 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E70" s="6">
-        <v>99999</v>
+        <v>135992</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H70" s="8">
         <v>1</v>
@@ -3896,25 +3999,25 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6">
-        <v>25190</v>
+        <v>1000918</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H71" s="8">
         <v>1</v>
@@ -3922,25 +4025,25 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E72" s="6">
-        <v>25190</v>
+        <v>19869</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="H72" s="8">
         <v>1</v>
@@ -3948,16 +4051,16 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E73" s="6">
         <v>25190</v>
@@ -3974,25 +4077,25 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E74" s="6">
-        <v>25190</v>
+        <v>849960</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H74" s="8">
         <v>1</v>
@@ -4000,25 +4103,25 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6">
-        <v>25190</v>
+        <v>99999</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H75" s="8">
         <v>1</v>
@@ -4026,25 +4129,25 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E76" s="6">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H76" s="8">
         <v>1</v>
@@ -4052,16 +4155,16 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E77" s="6">
         <v>25190</v>
@@ -4078,16 +4181,16 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E78" s="6">
         <v>25190</v>
@@ -4104,16 +4207,16 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E79" s="6">
         <v>25190</v>
@@ -4130,16 +4233,16 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="E80" s="6">
         <v>25190</v>
@@ -4156,25 +4259,25 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="E81" s="6">
-        <v>25190</v>
+        <v>9236</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="H81" s="8">
         <v>1</v>
@@ -4182,16 +4285,16 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E82" s="6">
         <v>25190</v>
@@ -4208,16 +4311,16 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E83" s="6">
         <v>25190</v>
@@ -4234,13 +4337,13 @@
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>55</v>
@@ -4260,13 +4363,13 @@
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>55</v>
@@ -4286,25 +4389,25 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E86" s="6">
-        <v>99999</v>
+        <v>25190</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H86" s="8">
         <v>1</v>
@@ -4312,25 +4415,25 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E87" s="6">
-        <v>750352</v>
+        <v>25190</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="H87" s="8">
         <v>1</v>
@@ -4338,25 +4441,25 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E88" s="6">
-        <v>99999</v>
+        <v>25190</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H88" s="8">
         <v>1</v>
@@ -4364,25 +4467,25 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E89" s="6">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H89" s="8">
         <v>1</v>
@@ -4390,68 +4493,68 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E90" s="6">
-        <v>55314</v>
+        <v>25190</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H90" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="16">
-        <v>135992</v>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6">
+        <v>99999</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>20</v>
+        <v>161</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H91" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92" s="6">
         <v>750352</v>
@@ -4459,268 +4562,268 @@
       <c r="F92" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="6">
+        <v>55314</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="16">
+        <v>135992</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E98" s="6">
         <v>37001</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E99" s="6">
         <v>37001</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H94" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B100" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D100" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E100" s="7">
         <v>849960</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H95" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B101" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E101" s="7">
         <v>68688</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G101" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H96" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D102" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E102" s="7">
         <v>68688</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G102" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="H97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H99" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E101" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="H102" s="8">
         <v>1</v>
@@ -4728,120 +4831,120 @@
     </row>
     <row r="103" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E103" s="7">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H103" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E104" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>158</v>
+        <v>207</v>
+      </c>
+      <c r="E104" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H104" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>158</v>
+        <v>202</v>
+      </c>
+      <c r="E105" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="H105" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="8">
-        <v>750352</v>
+    <row r="106" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="7">
+        <v>9236</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H106" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E107" s="7">
         <v>750352</v>
@@ -4852,213 +4955,213 @@
       <c r="G107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" s="6">
-        <v>19869</v>
+      <c r="H107" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="7">
+        <v>750352</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" s="15">
+        <v>11</v>
+      </c>
+      <c r="H108" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E109" s="6">
-        <v>26191</v>
+      <c r="A109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E109" s="8">
+        <v>158550</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H109" s="11">
+        <v>158</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H109" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="6">
-        <v>34799</v>
+        <v>181</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="8">
+        <v>135992</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" s="4">
+        <v>158</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E112" s="7">
         <v>750352</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F112" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G112" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="H112" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E113" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E114" s="6">
-        <v>47505</v>
+        <v>26191</v>
       </c>
       <c r="F114" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H114" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E115" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="G115" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H115" s="4">
         <v>1</v>
@@ -5066,13 +5169,13 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>10</v>
@@ -5092,25 +5195,25 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E117" s="6">
-        <v>34799</v>
+        <v>750352</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H117" s="4">
         <v>1</v>
@@ -5118,25 +5221,25 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E118" s="6">
-        <v>34799</v>
+        <v>135992</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H118" s="4">
         <v>1</v>
@@ -5144,25 +5247,25 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E119" s="6">
-        <v>34799</v>
+        <v>47505</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H119" s="4">
         <v>1</v>
@@ -5170,25 +5273,25 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E120" s="6">
-        <v>135992</v>
+        <v>19869</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H120" s="4">
         <v>1</v>
@@ -5196,25 +5299,25 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E121" s="6">
-        <v>58475</v>
+        <v>750352</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H121" s="4">
         <v>1</v>
@@ -5222,25 +5325,25 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E122" s="6">
-        <v>8157</v>
+        <v>34799</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H122" s="4">
         <v>1</v>
@@ -5248,25 +5351,25 @@
     </row>
     <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E123" s="6">
-        <v>99999</v>
+        <v>34799</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -5274,25 +5377,25 @@
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E124" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -5300,25 +5403,25 @@
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E125" s="6">
-        <v>26191</v>
+        <v>135992</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H125" s="4">
         <v>1</v>
@@ -5326,25 +5429,25 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E126" s="6">
-        <v>9236</v>
+        <v>58475</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H126" s="4">
         <v>1</v>
@@ -5352,25 +5455,25 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E127" s="6">
-        <v>58475</v>
+        <v>8157</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -5378,25 +5481,25 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E128" s="6">
-        <v>19869</v>
+        <v>99999</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H128" s="4">
         <v>1</v>
@@ -5404,25 +5507,25 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E129" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -5430,25 +5533,25 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E130" s="6">
-        <v>135992</v>
+        <v>26191</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -5456,25 +5559,25 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E131" s="6">
-        <v>30024</v>
+        <v>9236</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -5482,25 +5585,25 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E132" s="6">
-        <v>37001</v>
+        <v>58475</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -5508,25 +5611,25 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E133" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H133" s="4">
         <v>1</v>
@@ -5534,25 +5637,25 @@
     </row>
     <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E134" s="6">
-        <v>135992</v>
+        <v>19869</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H134" s="4">
         <v>1</v>
@@ -5560,13 +5663,13 @@
     </row>
     <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>19</v>
@@ -5586,25 +5689,25 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E136" s="6">
-        <v>9939969</v>
+        <v>30024</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H136" s="4">
         <v>1</v>
@@ -5612,25 +5715,25 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E137" s="6">
-        <v>750352</v>
+        <v>37001</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H137" s="4">
         <v>1</v>
@@ -5638,25 +5741,25 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E138" s="6">
-        <v>750352</v>
+        <v>9236</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H138" s="4">
         <v>1</v>
@@ -5664,25 +5767,25 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E139" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H139" s="4">
         <v>1</v>
@@ -5690,25 +5793,25 @@
     </row>
     <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E140" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H140" s="4">
         <v>1</v>
@@ -5716,25 +5819,25 @@
     </row>
     <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E141" s="6">
-        <v>750352</v>
+        <v>9939969</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H141" s="4">
         <v>1</v>
@@ -5742,25 +5845,25 @@
     </row>
     <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E142" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H142" s="4">
         <v>1</v>
@@ -5768,25 +5871,25 @@
     </row>
     <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E143" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H143" s="4">
         <v>1</v>
@@ -5794,25 +5897,25 @@
     </row>
     <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E144" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H144" s="4">
         <v>1</v>
@@ -5820,25 +5923,25 @@
     </row>
     <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E145" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H145" s="4">
         <v>1</v>
@@ -5846,25 +5949,25 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E146" s="6">
-        <v>9236</v>
+        <v>750352</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H146" s="4">
         <v>1</v>
@@ -5872,25 +5975,25 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E147" s="6">
-        <v>55450</v>
+        <v>19869</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H147" s="4">
         <v>1</v>
@@ -5898,25 +6001,25 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E148" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H148" s="4">
         <v>1</v>
@@ -5924,25 +6027,25 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E149" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H149" s="4">
         <v>1</v>
@@ -5950,25 +6053,25 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E150" s="6">
-        <v>55450</v>
+        <v>37001</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="H150" s="4">
         <v>1</v>
@@ -5976,27 +6079,157 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E155" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E156" s="6">
         <v>750352</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H156" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6004,7 +6237,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A91:A111 A112:A151 A64:A90 A18:A63" numberStoredAsText="1"/>
+    <ignoredError sqref="A96:A116 A117:A156 A69:A95 A23:A68 A2:A6 A7:A22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7792A8-0E51-42D4-B213-7240D65E1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01E52E-D046-47CC-BBE6-E7365045F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1760,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1835,14 +1835,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2162,7 +2155,7 @@
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,8 +2196,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>507</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2219,7 +2212,7 @@
       <c r="E2" s="6">
         <v>12003</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2229,8 +2222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>508</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2245,7 +2238,7 @@
       <c r="E3" s="6">
         <v>478659</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2255,8 +2248,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2271,7 +2264,7 @@
       <c r="E4" s="6">
         <v>750352</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2281,8 +2274,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>510</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2297,7 +2290,7 @@
       <c r="E5" s="6">
         <v>24195</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2307,8 +2300,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>511</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2323,7 +2316,7 @@
       <c r="E6" s="6">
         <v>25190</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2334,7 +2327,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2360,7 +2353,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>513</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2386,7 +2379,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>514</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2408,11 +2401,11 @@
         <v>61</v>
       </c>
       <c r="H9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>515</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2438,7 +2431,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>516</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2464,7 +2457,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>517</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2490,7 +2483,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>518</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2516,7 +2509,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>519</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2542,7 +2535,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>520</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2568,7 +2561,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>521</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2594,7 +2587,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>522</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2620,7 +2613,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>523</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2646,7 +2639,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>524</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2672,7 +2665,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>525</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2698,7 +2691,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2724,7 +2717,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>527</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3136,7 +3129,7 @@
         <v>187</v>
       </c>
       <c r="H37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3500,7 +3493,7 @@
         <v>187</v>
       </c>
       <c r="H51" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3526,7 +3519,7 @@
         <v>187</v>
       </c>
       <c r="H52" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4124,7 +4117,7 @@
         <v>61</v>
       </c>
       <c r="H75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4540,7 +4533,7 @@
         <v>61</v>
       </c>
       <c r="H91" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4592,7 +4585,7 @@
         <v>61</v>
       </c>
       <c r="H93" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5008,7 +5001,7 @@
         <v>187</v>
       </c>
       <c r="H109" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5502,7 +5495,7 @@
         <v>61</v>
       </c>
       <c r="H128" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5840,7 +5833,7 @@
         <v>108</v>
       </c>
       <c r="H141" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E01E52E-D046-47CC-BBE6-E7365045F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBB127-9557-47CD-A97D-2C907A0C760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$168</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="580">
   <si>
     <t>Número do caso</t>
   </si>
@@ -1640,6 +1640,129 @@
   </si>
   <si>
     <t>Fernando do Espirito Santo Soares</t>
+  </si>
+  <si>
+    <t>01142401</t>
+  </si>
+  <si>
+    <t>01141885</t>
+  </si>
+  <si>
+    <t>01141027</t>
+  </si>
+  <si>
+    <t>01140964</t>
+  </si>
+  <si>
+    <t>01140875</t>
+  </si>
+  <si>
+    <t>01138563</t>
+  </si>
+  <si>
+    <t>01138110</t>
+  </si>
+  <si>
+    <t>01136900</t>
+  </si>
+  <si>
+    <t>01135375</t>
+  </si>
+  <si>
+    <t>01134871</t>
+  </si>
+  <si>
+    <t>01134199</t>
+  </si>
+  <si>
+    <t>01134154</t>
+  </si>
+  <si>
+    <t>Joao Victor Ribas</t>
+  </si>
+  <si>
+    <t>Rogerio Ulisses Ramalho</t>
+  </si>
+  <si>
+    <t>Diogenes Fernandez Vital Junior</t>
+  </si>
+  <si>
+    <t>Fabiano Ramos Pitzer</t>
+  </si>
+  <si>
+    <t>Celidalva Dos Santos Oliveira</t>
+  </si>
+  <si>
+    <t>Yuri Araujo Da Silva</t>
+  </si>
+  <si>
+    <t>Delirdes Mari Da Silva</t>
+  </si>
+  <si>
+    <t>MARIA RODRIGUES CARDOSO DA SILVA</t>
+  </si>
+  <si>
+    <t>Paula Emanuelle Souza</t>
+  </si>
+  <si>
+    <t>Fabiola Gade Negocio Oliveira</t>
+  </si>
+  <si>
+    <t>Fernanda De Sousa Conceicao Dos Santos</t>
+  </si>
+  <si>
+    <t>Arnaldo Oliveira Dos Santos Neto</t>
+  </si>
+  <si>
+    <t>04/07/2024 09:11</t>
+  </si>
+  <si>
+    <t>03/07/2024 17:25</t>
+  </si>
+  <si>
+    <t>03/07/2024 14:16</t>
+  </si>
+  <si>
+    <t>03/07/2024 14:02</t>
+  </si>
+  <si>
+    <t>03/07/2024 13:48</t>
+  </si>
+  <si>
+    <t>02/07/2024 16:46</t>
+  </si>
+  <si>
+    <t>02/07/2024 15:23</t>
+  </si>
+  <si>
+    <t>02/07/2024 12:08</t>
+  </si>
+  <si>
+    <t>01/07/2024 17:13</t>
+  </si>
+  <si>
+    <t>01/07/2024 16:02</t>
+  </si>
+  <si>
+    <t>01/07/2024 14:13</t>
+  </si>
+  <si>
+    <t>01/07/2024 14:02</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS NOB ONDINA</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS RADIOTERAPIA MÉIER</t>
+  </si>
+  <si>
+    <t>Imunomed</t>
+  </si>
+  <si>
+    <t>Anber Ancel Tanaka</t>
+  </si>
+  <si>
+    <t>Milton da Silveira Pedreira Neto</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,25 +2321,25 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6">
-        <v>12003</v>
+        <v>17509</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="H2" s="12">
         <v>1</v>
@@ -2224,25 +2347,25 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="E3" s="6">
-        <v>478659</v>
+        <v>14517</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -2250,25 +2373,25 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>575</v>
       </c>
       <c r="E4" s="6">
-        <v>750352</v>
+        <v>13691</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -2276,25 +2399,25 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>263</v>
+        <v>575</v>
       </c>
       <c r="E5" s="6">
-        <v>24195</v>
+        <v>13691</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -2302,25 +2425,25 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="E6" s="6">
-        <v>25190</v>
+        <v>13691</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="H6" s="12">
         <v>1</v>
@@ -2328,25 +2451,25 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>470</v>
+        <v>568</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>754005</v>
-      </c>
-      <c r="F7" s="6" t="s">
+        <v>478659</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>471</v>
+        <v>325</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
@@ -2354,25 +2477,25 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>557</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>473</v>
+        <v>569</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>156</v>
+        <v>37001</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -2380,51 +2503,51 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>476</v>
+        <v>576</v>
       </c>
       <c r="E9" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>161</v>
+        <v>478659</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="H9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>577</v>
       </c>
       <c r="E10" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>160</v>
+        <v>9236</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="H10" s="12">
         <v>1</v>
@@ -2432,13 +2555,13 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>479</v>
+        <v>560</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -2446,7 +2569,7 @@
       <c r="E11" s="6">
         <v>25190</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2458,25 +2581,25 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="E12" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>160</v>
+        <v>13691</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
@@ -2484,25 +2607,25 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="E13" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>160</v>
+        <v>13691</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
@@ -2510,25 +2633,25 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F14" s="6" t="s">
+        <v>12003</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>253</v>
+        <v>538</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
@@ -2536,25 +2659,25 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>160</v>
+        <v>478659</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
@@ -2562,25 +2685,25 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>160</v>
+        <v>750352</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
@@ -2588,25 +2711,25 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="E17" s="6">
-        <v>15423</v>
-      </c>
-      <c r="F17" s="6" t="s">
+        <v>24195</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="H17" s="12">
         <v>1</v>
@@ -2614,25 +2737,25 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>158</v>
+        <v>25190</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H18" s="12">
         <v>1</v>
@@ -2640,25 +2763,25 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="E19" s="6">
-        <v>22402</v>
+        <v>754005</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -2666,25 +2789,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
@@ -2692,388 +2815,388 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="E21" s="6">
-        <v>14517</v>
+        <v>99999</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="H21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6">
-        <v>24195</v>
+        <v>25190</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6">
+        <v>15423</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="6">
+        <v>22402</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E33" s="6">
+        <v>14517</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6">
+        <v>24195</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B35" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E35" s="23">
         <v>478659</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="22">
-        <v>8157</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1000918</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E27" s="22">
-        <v>18615</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E30" s="22">
-        <v>14517</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="24" t="s">
         <v>325</v>
       </c>
       <c r="H35" s="12">
@@ -3082,25 +3205,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E36" s="22">
-        <v>32969</v>
+        <v>8157</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>369</v>
+        <v>56</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
@@ -3108,51 +3231,51 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>373</v>
+        <v>101</v>
       </c>
       <c r="E37" s="22">
-        <v>158550</v>
+        <v>135992</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="H37" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="22">
-        <v>478659</v>
+        <v>1000918</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="H38" s="12">
         <v>1</v>
@@ -3160,25 +3283,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="E39" s="22">
-        <v>135992</v>
+        <v>18615</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -3186,13 +3309,13 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>19</v>
@@ -3212,16 +3335,16 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="22">
         <v>478659</v>
@@ -3238,25 +3361,25 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="E42" s="22">
-        <v>478659</v>
+        <v>14517</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -3264,25 +3387,25 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E43" s="22">
-        <v>478659</v>
+        <v>37001</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="H43" s="12">
         <v>1</v>
@@ -3290,25 +3413,25 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E44" s="22">
-        <v>478659</v>
+        <v>37001</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="H44" s="12">
         <v>1</v>
@@ -3316,25 +3439,25 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E45" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H45" s="12">
         <v>1</v>
@@ -3342,25 +3465,25 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E46" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H46" s="12">
         <v>1</v>
@@ -3368,25 +3491,25 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="E47" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H47" s="12">
         <v>1</v>
@@ -3394,25 +3517,25 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="E48" s="22">
-        <v>6776</v>
+        <v>32969</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>209</v>
+        <v>369</v>
       </c>
       <c r="H48" s="12">
         <v>1</v>
@@ -3420,51 +3543,51 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="E49" s="22">
-        <v>478659</v>
+        <v>158550</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="H49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H50" s="12">
         <v>1</v>
@@ -3472,77 +3595,77 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="E51" s="22">
-        <v>158550</v>
+        <v>135992</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="H51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E52" s="22">
-        <v>158550</v>
+        <v>135992</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="H52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E53" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H53" s="12">
         <v>1</v>
@@ -3550,25 +3673,25 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="E54" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
@@ -3576,25 +3699,25 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
@@ -3602,25 +3725,25 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="E56" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H56" s="12">
         <v>1</v>
@@ -3628,25 +3751,25 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E57" s="22">
-        <v>12468</v>
+        <v>25190</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="H57" s="12">
         <v>1</v>
@@ -3654,25 +3777,25 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="E58" s="22">
-        <v>12468</v>
+        <v>25190</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="H58" s="12">
         <v>1</v>
@@ -3680,25 +3803,25 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E59" s="22">
-        <v>12710</v>
+        <v>135992</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
@@ -3706,25 +3829,25 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="E60" s="22">
-        <v>25190</v>
+        <v>6776</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -3732,25 +3855,25 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E61" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H61" s="12">
         <v>1</v>
@@ -3758,25 +3881,25 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E62" s="22">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H62" s="12">
         <v>1</v>
@@ -3784,77 +3907,77 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="E63" s="22">
-        <v>25190</v>
+        <v>158550</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="H63" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="E64" s="22">
-        <v>12468</v>
+        <v>158550</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="H64" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>163</v>
+        <v>421</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="E65" s="22">
-        <v>9236</v>
+        <v>12468</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>73</v>
+        <v>422</v>
       </c>
       <c r="H65" s="12">
         <v>1</v>
@@ -3862,16 +3985,16 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="E66" s="22">
         <v>12468</v>
@@ -3888,25 +4011,25 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E67" s="22">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H67" s="12">
         <v>1</v>
@@ -3914,363 +4037,363 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="22">
+        <v>12710</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H72" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H75" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H76" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="22">
+        <v>9236</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="22">
+        <v>19869</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B80" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D80" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E80" s="22">
         <v>47505</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F80" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G80" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="H80" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B81" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D81" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E81" s="16">
         <v>19869</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G81" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="H69" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1000918</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H71" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6">
-        <v>849960</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E76" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H77" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H78" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H79" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E80" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H81" s="8">
         <v>1</v>
@@ -4278,25 +4401,25 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E82" s="6">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H82" s="8">
         <v>1</v>
@@ -4304,25 +4427,25 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E83" s="6">
-        <v>25190</v>
+        <v>1000918</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H83" s="8">
         <v>1</v>
@@ -4330,25 +4453,25 @@
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E84" s="6">
-        <v>25190</v>
+        <v>19869</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="H84" s="8">
         <v>1</v>
@@ -4356,16 +4479,16 @@
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E85" s="6">
         <v>25190</v>
@@ -4382,25 +4505,25 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E86" s="6">
-        <v>25190</v>
+        <v>849960</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H86" s="8">
         <v>1</v>
@@ -4408,42 +4531,42 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E87" s="6">
-        <v>25190</v>
+        <v>99999</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H87" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="E88" s="6">
         <v>25190</v>
@@ -4460,13 +4583,13 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>55</v>
@@ -4486,13 +4609,13 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>55</v>
@@ -4512,51 +4635,51 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E91" s="6">
-        <v>99999</v>
+        <v>25190</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H91" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="E92" s="6">
-        <v>750352</v>
+        <v>25190</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="H92" s="8">
         <v>1</v>
@@ -4564,51 +4687,51 @@
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E93" s="6">
-        <v>99999</v>
+        <v>9236</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H93" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="E94" s="6">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H94" s="8">
         <v>1</v>
@@ -4616,441 +4739,441 @@
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E95" s="6">
-        <v>55314</v>
+        <v>25190</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H95" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="16">
-        <v>135992</v>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="6">
+        <v>25190</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H96" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E103" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="6">
         <v>750352</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F104" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H98" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H99" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="7">
-        <v>849960</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H101" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E102" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H102" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E104" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H104" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E105" s="7">
-        <v>10218</v>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="6">
+        <v>99999</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H105" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D106" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="6">
         <v>9236</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H106" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E107" s="7">
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="6">
+        <v>55314</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H107" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="16">
+        <v>135992</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="6">
         <v>750352</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E109" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H109" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>20</v>
+      <c r="H109" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H110" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="8">
-        <v>750352</v>
+        <v>29</v>
+      </c>
+      <c r="E111" s="6">
+        <v>37001</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H111" s="8">
         <v>1</v>
@@ -5058,415 +5181,415 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="7">
-        <v>750352</v>
+        <v>849960</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>157</v>
       </c>
       <c r="G112" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="7">
+        <v>135992</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H117" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E114" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H114" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="6">
+      <c r="H119" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="7">
         <v>750352</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F120" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G120" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="H120" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E121" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E122" s="8">
         <v>135992</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F122" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G122" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="6">
-        <v>47505</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="4">
+      <c r="H122" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="4">
+        <v>15</v>
+      </c>
+      <c r="E123" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="4">
+      <c r="A124" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E125" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E126" s="6">
-        <v>58475</v>
+        <v>26191</v>
       </c>
       <c r="F126" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" s="6">
-        <v>8157</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="G127" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -5474,51 +5597,51 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E128" s="6">
-        <v>99999</v>
+        <v>750352</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H128" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E129" s="6">
-        <v>135992</v>
+        <v>750352</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -5526,25 +5649,25 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E130" s="6">
-        <v>26191</v>
+        <v>135992</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -5552,25 +5675,25 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E131" s="6">
-        <v>9236</v>
+        <v>47505</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -5578,25 +5701,25 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E132" s="6">
-        <v>58475</v>
+        <v>19869</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -5604,25 +5727,25 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E133" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H133" s="4">
         <v>1</v>
@@ -5630,25 +5753,25 @@
     </row>
     <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E134" s="6">
-        <v>19869</v>
+        <v>34799</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H134" s="4">
         <v>1</v>
@@ -5656,25 +5779,25 @@
     </row>
     <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E135" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H135" s="4">
         <v>1</v>
@@ -5682,25 +5805,25 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E136" s="6">
-        <v>30024</v>
+        <v>34799</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="H136" s="4">
         <v>1</v>
@@ -5708,25 +5831,25 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E137" s="6">
-        <v>37001</v>
+        <v>135992</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H137" s="4">
         <v>1</v>
@@ -5734,25 +5857,25 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E138" s="6">
-        <v>9236</v>
+        <v>58475</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H138" s="4">
         <v>1</v>
@@ -5760,25 +5883,25 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E139" s="6">
-        <v>135992</v>
+        <v>8157</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H139" s="4">
         <v>1</v>
@@ -5786,77 +5909,77 @@
     </row>
     <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E140" s="6">
-        <v>135992</v>
+        <v>99999</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H140" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E141" s="6">
-        <v>9939969</v>
+        <v>135992</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>158</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H141" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E142" s="6">
-        <v>750352</v>
+        <v>26191</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H142" s="4">
         <v>1</v>
@@ -5864,25 +5987,25 @@
     </row>
     <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E143" s="6">
-        <v>750352</v>
+        <v>9236</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H143" s="4">
         <v>1</v>
@@ -5890,25 +6013,25 @@
     </row>
     <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E144" s="6">
-        <v>750352</v>
+        <v>58475</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H144" s="4">
         <v>1</v>
@@ -5916,25 +6039,25 @@
     </row>
     <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E145" s="6">
-        <v>750352</v>
+        <v>19869</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H145" s="4">
         <v>1</v>
@@ -5942,25 +6065,25 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E146" s="6">
-        <v>750352</v>
+        <v>19869</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H146" s="4">
         <v>1</v>
@@ -5968,25 +6091,25 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E147" s="6">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H147" s="4">
         <v>1</v>
@@ -5994,25 +6117,25 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E148" s="6">
-        <v>19869</v>
+        <v>30024</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H148" s="4">
         <v>1</v>
@@ -6020,25 +6143,25 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E149" s="6">
-        <v>19869</v>
+        <v>37001</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H149" s="4">
         <v>1</v>
@@ -6046,25 +6169,25 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E150" s="6">
-        <v>37001</v>
+        <v>9236</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H150" s="4">
         <v>1</v>
@@ -6072,25 +6195,25 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E151" s="6">
-        <v>9236</v>
+        <v>135992</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H151" s="4">
         <v>1</v>
@@ -6098,25 +6221,25 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E152" s="6">
-        <v>55450</v>
+        <v>135992</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H152" s="4">
         <v>1</v>
@@ -6124,51 +6247,51 @@
     </row>
     <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E153" s="6">
-        <v>37001</v>
+        <v>9939969</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H153" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E154" s="6">
-        <v>37001</v>
+        <v>750352</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H154" s="4">
         <v>1</v>
@@ -6176,25 +6299,25 @@
     </row>
     <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E155" s="6">
-        <v>55450</v>
+        <v>750352</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H155" s="4">
         <v>1</v>
@@ -6202,13 +6325,13 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>10</v>
@@ -6223,6 +6346,318 @@
         <v>11</v>
       </c>
       <c r="H156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6230,7 +6665,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A96:A116 A117:A156 A69:A95 A23:A68 A2:A6 A7:A22" numberStoredAsText="1"/>
+    <ignoredError sqref="A108:A128 A129:A168 A81:A107 A35:A80 A14:A18 A19:A34 A2:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBB127-9557-47CD-A97D-2C907A0C760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6075CB5-2132-4F7B-A75D-AE5E392A32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encaminhamento Imuno" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Encaminhamento Imuno'!$A$1:$H$185</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="635">
   <si>
     <t>Número do caso</t>
   </si>
@@ -1763,6 +1763,171 @@
   </si>
   <si>
     <t>Milton da Silveira Pedreira Neto</t>
+  </si>
+  <si>
+    <t>01179378</t>
+  </si>
+  <si>
+    <t>01178499</t>
+  </si>
+  <si>
+    <t>01176521</t>
+  </si>
+  <si>
+    <t>01176424</t>
+  </si>
+  <si>
+    <t>01176185</t>
+  </si>
+  <si>
+    <t>01174612</t>
+  </si>
+  <si>
+    <t>01172377</t>
+  </si>
+  <si>
+    <t>01170441</t>
+  </si>
+  <si>
+    <t>01168576</t>
+  </si>
+  <si>
+    <t>01167179</t>
+  </si>
+  <si>
+    <t>01166204</t>
+  </si>
+  <si>
+    <t>01163776</t>
+  </si>
+  <si>
+    <t>01153066</t>
+  </si>
+  <si>
+    <t>01152789</t>
+  </si>
+  <si>
+    <t>01152464</t>
+  </si>
+  <si>
+    <t>01152165</t>
+  </si>
+  <si>
+    <t>01150308</t>
+  </si>
+  <si>
+    <t>Marina Morais Caldeira</t>
+  </si>
+  <si>
+    <t>BRUNO HENRIQUE OLIVEIRA LIRA</t>
+  </si>
+  <si>
+    <t>Ana Carolina Silva Gomes</t>
+  </si>
+  <si>
+    <t>RENAN JUSTINO DE MEDEIROS</t>
+  </si>
+  <si>
+    <t>ANTONIO GROSSL</t>
+  </si>
+  <si>
+    <t>Karina Assolari Takano</t>
+  </si>
+  <si>
+    <t>Alda Ferreira Alves</t>
+  </si>
+  <si>
+    <t>Flavia Figueiredo Guedes Correia De Mello</t>
+  </si>
+  <si>
+    <t>Ingrid De Carvalho</t>
+  </si>
+  <si>
+    <t>Lucas Antonio Garcia</t>
+  </si>
+  <si>
+    <t>Joao Pedro Pinto Nascimento Gomes</t>
+  </si>
+  <si>
+    <t>Arthur Gallo Simoes</t>
+  </si>
+  <si>
+    <t>Andrea Lima Dos Santos</t>
+  </si>
+  <si>
+    <t>CRISTINA CAMPOS PINTO</t>
+  </si>
+  <si>
+    <t>ANDRE RODRIGUES REZENDE</t>
+  </si>
+  <si>
+    <t>Luciana Correa Martins Yera Barbosa</t>
+  </si>
+  <si>
+    <t>Jose Aparecido Claro Dos Santos</t>
+  </si>
+  <si>
+    <t>19/07/2024 16:14</t>
+  </si>
+  <si>
+    <t>19/07/2024 13:25</t>
+  </si>
+  <si>
+    <t>18/07/2024 17:08</t>
+  </si>
+  <si>
+    <t>18/07/2024 16:46</t>
+  </si>
+  <si>
+    <t>18/07/2024 15:50</t>
+  </si>
+  <si>
+    <t>18/07/2024 10:50</t>
+  </si>
+  <si>
+    <t>17/07/2024 13:38</t>
+  </si>
+  <si>
+    <t>16/07/2024 22:22</t>
+  </si>
+  <si>
+    <t>16/07/2024 12:24</t>
+  </si>
+  <si>
+    <t>15/07/2024 18:33</t>
+  </si>
+  <si>
+    <t>15/07/2024 14:40</t>
+  </si>
+  <si>
+    <t>12/07/2024 19:22</t>
+  </si>
+  <si>
+    <t>09/07/2024 11:18</t>
+  </si>
+  <si>
+    <t>09/07/2024 10:30</t>
+  </si>
+  <si>
+    <t>09/07/2024 09:31</t>
+  </si>
+  <si>
+    <t>09/07/2024 07:46</t>
+  </si>
+  <si>
+    <t>08/07/2024 11:20</t>
+  </si>
+  <si>
+    <t>OC ONCOCLÍNICAS LONDRINA | PRO ONCO</t>
+  </si>
+  <si>
+    <t>PREVINE (CEILÂNDIA)</t>
+  </si>
+  <si>
+    <t>Patricia Mayumi Kurihara</t>
+  </si>
+  <si>
+    <t>Iracema Ferreira Sanders</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1959,6 +2124,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2275,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,495 +2503,495 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>539</v>
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>580</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6">
-        <v>17509</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>15423</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="6">
+        <v>478659</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E7" s="6">
+        <v>27299</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="6">
-        <v>14517</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="G7" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7462</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E4" s="6">
-        <v>13691</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E5" s="6">
-        <v>13691</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="6">
-        <v>13691</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>478659</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>546</v>
+        <v>634</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>587</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>576</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>478659</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="30" t="s">
         <v>157</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>547</v>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>588</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>577</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>162</v>
+        <v>19869</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>548</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>589</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>631</v>
       </c>
       <c r="E11" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>160</v>
+        <v>27299</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>549</v>
+        <v>633</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>590</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>575</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
-        <v>13691</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>161</v>
+        <v>478659</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>550</v>
+        <v>325</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>591</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>575</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
-        <v>13691</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>161</v>
+        <v>34799</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>507</v>
+        <v>6</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>592</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>533</v>
+        <v>626</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6">
-        <v>12003</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>160</v>
+        <v>478659</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>508</v>
+        <v>325</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>593</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>529</v>
+        <v>610</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>534</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>576</v>
       </c>
       <c r="E15" s="6">
         <v>478659</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="30" t="s">
         <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>509</v>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>594</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>535</v>
+        <v>628</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F16" s="8" t="s">
+        <v>478659</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>510</v>
+        <v>325</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>595</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>536</v>
+        <v>629</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6">
-        <v>24195</v>
-      </c>
-      <c r="F17" s="8" t="s">
+        <v>19869</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18" s="6">
+        <v>26191</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="6">
-        <v>754005</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H19" s="12">
+        <v>69</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="33">
+        <v>17509</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="H19" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="E20" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>156</v>
+        <v>14517</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
@@ -2815,51 +2999,51 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>475</v>
+        <v>565</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="E21" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>13691</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>161</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="H21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>575</v>
       </c>
       <c r="E22" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>160</v>
+        <v>13691</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="H22" s="12">
         <v>1</v>
@@ -2867,25 +3051,25 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="E23" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>160</v>
+        <v>13691</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
@@ -2893,25 +3077,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E24" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>160</v>
+        <v>478659</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H24" s="12">
         <v>1</v>
@@ -2919,25 +3103,25 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E25" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>160</v>
+        <v>37001</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -2945,25 +3129,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>576</v>
       </c>
       <c r="E26" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>160</v>
+        <v>478659</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H26" s="12">
         <v>1</v>
@@ -2971,25 +3155,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>577</v>
       </c>
       <c r="E27" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>160</v>
+        <v>9236</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -2997,13 +3181,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
@@ -3011,7 +3195,7 @@
       <c r="E28" s="6">
         <v>25190</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3023,25 +3207,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>492</v>
+        <v>573</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="E29" s="6">
-        <v>15423</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>160</v>
+        <v>13691</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -3049,25 +3233,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>575</v>
       </c>
       <c r="E30" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>158</v>
+        <v>13691</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>579</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -3075,25 +3259,25 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="E31" s="6">
-        <v>22402</v>
-      </c>
-      <c r="F31" s="6" t="s">
+        <v>12003</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -3101,25 +3285,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>158</v>
+        <v>478659</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
@@ -3127,25 +3311,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6">
-        <v>14517</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>160</v>
+        <v>750352</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="H33" s="12">
         <v>1</v>
@@ -3153,21 +3337,21 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="E34" s="6">
         <v>24195</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3178,468 +3362,468 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="6">
+        <v>754005</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="6">
+        <v>34799</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="6">
+        <v>15423</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="6">
+        <v>22402</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E50" s="6">
+        <v>14517</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="6">
+        <v>24195</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E52" s="23">
         <v>478659</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F52" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G52" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="H35" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="22">
-        <v>8157</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="22">
-        <v>1000918</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E39" s="22">
-        <v>18615</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="22">
-        <v>14517</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="22">
-        <v>37001</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="22">
-        <v>32969</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="H48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="22">
-        <v>158550</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="22">
-        <v>478659</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="22">
-        <v>135992</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="H52" s="12">
         <v>1</v>
@@ -3647,25 +3831,25 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E53" s="22">
-        <v>478659</v>
+        <v>8157</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="H53" s="12">
         <v>1</v>
@@ -3673,25 +3857,25 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E54" s="22">
-        <v>478659</v>
+        <v>135992</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
@@ -3699,25 +3883,25 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="22">
-        <v>478659</v>
+        <v>1000918</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>157</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
@@ -3725,25 +3909,25 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="E56" s="22">
-        <v>478659</v>
+        <v>18615</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H56" s="12">
         <v>1</v>
@@ -3751,25 +3935,25 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E57" s="22">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H57" s="12">
         <v>1</v>
@@ -3777,25 +3961,25 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E58" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H58" s="12">
         <v>1</v>
@@ -3803,25 +3987,25 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="E59" s="22">
-        <v>135992</v>
+        <v>14517</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
@@ -3829,25 +4013,25 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="E60" s="22">
-        <v>6776</v>
+        <v>37001</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -3855,25 +4039,25 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E61" s="22">
-        <v>478659</v>
+        <v>37001</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="H61" s="12">
         <v>1</v>
@@ -3881,25 +4065,25 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E62" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H62" s="12">
         <v>1</v>
@@ -3907,77 +4091,77 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="E63" s="22">
-        <v>158550</v>
+        <v>478659</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="H63" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="E64" s="22">
-        <v>158550</v>
+        <v>478659</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="H64" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E65" s="22">
-        <v>12468</v>
+        <v>32969</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="H65" s="12">
         <v>1</v>
@@ -3985,51 +4169,51 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="E66" s="22">
-        <v>12468</v>
+        <v>158550</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="H66" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E67" s="22">
-        <v>135992</v>
+        <v>478659</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="H67" s="12">
         <v>1</v>
@@ -4037,25 +4221,25 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E68" s="22">
-        <v>12468</v>
+        <v>135992</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="H68" s="12">
         <v>1</v>
@@ -4063,25 +4247,25 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E69" s="22">
-        <v>12468</v>
+        <v>135992</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="H69" s="12">
         <v>1</v>
@@ -4089,25 +4273,25 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="E70" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H70" s="12">
         <v>1</v>
@@ -4115,25 +4299,25 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E71" s="22">
-        <v>12710</v>
+        <v>478659</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>441</v>
+        <v>325</v>
       </c>
       <c r="H71" s="12">
         <v>1</v>
@@ -4141,25 +4325,25 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E72" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H72" s="12">
         <v>1</v>
@@ -4167,25 +4351,25 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E73" s="22">
-        <v>25190</v>
+        <v>478659</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="H73" s="12">
         <v>1</v>
@@ -4193,16 +4377,16 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E74" s="22">
         <v>25190</v>
@@ -4219,16 +4403,16 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E75" s="22">
         <v>25190</v>
@@ -4245,25 +4429,25 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="E76" s="22">
-        <v>12468</v>
+        <v>135992</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="H76" s="12">
         <v>1</v>
@@ -4271,25 +4455,25 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>163</v>
+        <v>406</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="E77" s="22">
-        <v>9236</v>
+        <v>6776</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="H77" s="12">
         <v>1</v>
@@ -4297,25 +4481,25 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E78" s="22">
-        <v>12468</v>
+        <v>478659</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="H78" s="12">
         <v>1</v>
@@ -4323,25 +4507,25 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E79" s="22">
-        <v>19869</v>
+        <v>135992</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H79" s="12">
         <v>1</v>
@@ -4349,493 +4533,493 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E80" s="22">
+        <v>158550</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="22">
+        <v>158550</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H82" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E83" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H83" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="22">
+        <v>135992</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H85" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H86" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H87" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="22">
+        <v>12710</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H88" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H89" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H90" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H91" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="22">
+        <v>25190</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H92" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H93" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="22">
+        <v>9236</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="22">
+        <v>12468</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H95" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="22">
+        <v>19869</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B97" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C97" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E97" s="22">
         <v>47505</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F97" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G97" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="H97" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B98" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C98" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D98" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E98" s="16">
         <v>19869</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G98" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="H81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1000918</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H85" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="6">
-        <v>849960</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H86" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H87" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E88" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H89" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H91" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H92" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E93" s="6">
-        <v>9236</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E94" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H94" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H95" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H96" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="6">
-        <v>25190</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H98" s="8">
         <v>1</v>
@@ -4843,25 +5027,25 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E99" s="6">
-        <v>25190</v>
+        <v>135992</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="H99" s="8">
         <v>1</v>
@@ -4869,25 +5053,25 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E100" s="6">
-        <v>25190</v>
+        <v>1000918</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H100" s="8">
         <v>1</v>
@@ -4895,25 +5079,25 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E101" s="6">
-        <v>25190</v>
+        <v>19869</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="H101" s="8">
         <v>1</v>
@@ -4921,16 +5105,16 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E102" s="6">
         <v>25190</v>
@@ -4947,103 +5131,103 @@
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="6">
-        <v>99999</v>
+        <v>849960</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="H103" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E104" s="6">
-        <v>750352</v>
+        <v>99999</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H104" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E105" s="6">
-        <v>99999</v>
+        <v>25190</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H105" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E106" s="6">
-        <v>9236</v>
+        <v>25190</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H106" s="8">
         <v>1</v>
@@ -5051,987 +5235,987 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E107" s="6">
-        <v>55314</v>
+        <v>25190</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H107" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="16">
-        <v>135992</v>
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="6">
+        <v>25190</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="H108" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E109" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H109" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H115" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H116" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H117" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="6">
+        <v>25190</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H119" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E120" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="6">
         <v>750352</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G121" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H110" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E111" s="6">
-        <v>37001</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H111" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="7">
-        <v>849960</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H113" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E114" s="7">
-        <v>68688</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H114" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="7">
-        <v>135992</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E116" s="7">
-        <v>6776</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H116" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" s="7">
-        <v>10218</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H117" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D118" s="9" t="s">
+      <c r="H121" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E118" s="7">
-        <v>9236</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H118" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E121" s="8">
-        <v>158550</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H121" s="12">
+      <c r="E122" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" s="8">
-        <v>135992</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="8">
+        <v>163</v>
+      </c>
+      <c r="E123" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="6">
+        <v>55314</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H124" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="16">
+        <v>135992</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="6">
         <v>750352</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F126" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G126" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="H126" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H127" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H128" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="7">
-        <v>750352</v>
-      </c>
-      <c r="F124" s="8" t="s">
+      <c r="E129" s="7">
+        <v>849960</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="G129" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H129" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="E130" s="7">
+        <v>68688</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H127" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="6">
-        <v>750352</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="4">
+      <c r="G130" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="6">
-        <v>47505</v>
+      <c r="A131" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="7">
+        <v>68688</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="6">
-        <v>19869</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="G131" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="7">
+        <v>135992</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" s="7">
+        <v>6776</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" s="7">
+        <v>10218</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H134" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" s="7">
+        <v>9236</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H135" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E136" s="7">
         <v>750352</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F136" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G136" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H135" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="6">
-        <v>34799</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="H136" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E138" s="8">
+        <v>158550</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E139" s="8">
         <v>135992</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F139" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G139" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E138" s="6">
-        <v>58475</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E139" s="6">
-        <v>8157</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H139" s="4">
+      <c r="H139" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E140" s="6">
-        <v>99999</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H140" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E140" s="8">
+        <v>750352</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="6">
-        <v>135992</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141" s="4">
+      <c r="A141" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="7">
+        <v>750352</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E142" s="6">
-        <v>26191</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H142" s="4">
+        <v>19869</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="E143" s="6">
-        <v>9236</v>
+        <v>26191</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H143" s="4">
+        <v>69</v>
+      </c>
+      <c r="H143" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>74</v>
+      <c r="A144" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E144" s="6">
-        <v>58475</v>
+        <v>34799</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H144" s="4">
         <v>1</v>
@@ -6039,25 +6223,25 @@
     </row>
     <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E145" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H145" s="4">
         <v>1</v>
@@ -6065,25 +6249,25 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E146" s="6">
-        <v>19869</v>
+        <v>750352</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H146" s="4">
         <v>1</v>
@@ -6091,13 +6275,13 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>19</v>
@@ -6117,25 +6301,25 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E148" s="6">
-        <v>30024</v>
+        <v>47505</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H148" s="4">
         <v>1</v>
@@ -6143,25 +6327,25 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E149" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H149" s="4">
         <v>1</v>
@@ -6169,25 +6353,25 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E150" s="6">
-        <v>9236</v>
+        <v>750352</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H150" s="4">
         <v>1</v>
@@ -6195,25 +6379,25 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E151" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H151" s="4">
         <v>1</v>
@@ -6221,25 +6405,25 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E152" s="6">
-        <v>135992</v>
+        <v>34799</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H152" s="4">
         <v>1</v>
@@ -6247,51 +6431,51 @@
     </row>
     <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E153" s="6">
-        <v>9939969</v>
+        <v>34799</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H153" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E154" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H154" s="4">
         <v>1</v>
@@ -6299,25 +6483,25 @@
     </row>
     <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E155" s="6">
-        <v>750352</v>
+        <v>58475</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H155" s="4">
         <v>1</v>
@@ -6325,25 +6509,25 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E156" s="6">
-        <v>750352</v>
+        <v>8157</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H156" s="4">
         <v>1</v>
@@ -6351,51 +6535,51 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E157" s="6">
-        <v>750352</v>
+        <v>99999</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E158" s="6">
-        <v>750352</v>
+        <v>135992</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H158" s="4">
         <v>1</v>
@@ -6403,25 +6587,25 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E159" s="6">
-        <v>19869</v>
+        <v>26191</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H159" s="4">
         <v>1</v>
@@ -6429,25 +6613,25 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="E160" s="6">
-        <v>19869</v>
+        <v>9236</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H160" s="4">
         <v>1</v>
@@ -6455,25 +6639,25 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E161" s="6">
-        <v>19869</v>
+        <v>58475</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H161" s="4">
         <v>1</v>
@@ -6481,25 +6665,25 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E162" s="6">
-        <v>37001</v>
+        <v>19869</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H162" s="4">
         <v>1</v>
@@ -6507,25 +6691,25 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="E163" s="6">
-        <v>9236</v>
+        <v>19869</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H163" s="4">
         <v>1</v>
@@ -6533,25 +6717,25 @@
     </row>
     <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E164" s="6">
-        <v>55450</v>
+        <v>135992</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H164" s="4">
         <v>1</v>
@@ -6559,25 +6743,25 @@
     </row>
     <row r="165" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E165" s="6">
-        <v>37001</v>
+        <v>30024</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H165" s="4">
         <v>1</v>
@@ -6585,16 +6769,16 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E166" s="6">
         <v>37001</v>
@@ -6611,25 +6795,25 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E167" s="6">
-        <v>55450</v>
+        <v>9236</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="H167" s="4">
         <v>1</v>
@@ -6637,27 +6821,469 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="6">
+        <v>135992</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="6">
+        <v>9939969</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="6">
+        <v>750352</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="6">
+        <v>19869</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" s="6">
+        <v>9236</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E181" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="6">
+        <v>37001</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E184" s="6">
+        <v>55450</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E185" s="6">
         <v>750352</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F185" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H185" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6665,7 +7291,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A108:A128 A129:A168 A81:A107 A35:A80 A14:A18 A19:A34 A2:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A125:A145 A146:A185 A98:A124 A52:A97 A31:A35 A36:A51 A19:A30 A2:A18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
+++ b/pacientes_imuno_mediados_encaminhados_27_02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keller\Documents\Projetos\Cursos\Python\Dashboard_Area_Logada\Area_Logada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D2669-F99D-4DCB-88F4-BE80A68DCA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70ACE01-3979-4217-9917-6AF51153F241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2735,7 +2735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2750,12 +2750,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2864,22 +2858,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3194,10 +3188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>650</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>651</v>
       </c>
@@ -4044,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>662</v>
       </c>
@@ -4512,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>680</v>
       </c>
@@ -6176,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>514</v>
       </c>
@@ -6904,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>370</v>
       </c>
@@ -7268,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>413</v>
       </c>
@@ -7294,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>416</v>
       </c>
@@ -7892,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>257</v>
       </c>
@@ -8308,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>307</v>
       </c>
@@ -8360,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>312</v>
       </c>
@@ -8776,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>188</v>
       </c>
@@ -9270,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>57</v>
       </c>
@@ -9608,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>105</v>
       </c>
@@ -10025,6 +10020,56 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H262" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Aedra Kapitzky Dias"/>
+        <filter val="Aline Rocha Camporez"/>
+        <filter val="Anber Ancel Tanaka"/>
+        <filter val="Breno Cesar De Oliveira Viana"/>
+        <filter val="Bruno Martins Fernandes Silva"/>
+        <filter val="Camila Cuzzuol Pimentel Modenese Lima"/>
+        <filter val="Camila da Silva Cendon Duran"/>
+        <filter val="Carolina Moreno Cossi"/>
+        <filter val="Cecilia Resende Brunow Bazzo"/>
+        <filter val="Ernane Pires Maciel"/>
+        <filter val="Fabricio Claudino Estrela Terra Theodoro"/>
+        <filter val="Fernanda Calil Netto Souza"/>
+        <filter val="Fernanda Oliveira Ferraz"/>
+        <filter val="Fernando do Espirito Santo Soares"/>
+        <filter val="Gesmar Rodrigues Silva Segundo"/>
+        <filter val="Gina Eliane Menezes Haase Lobo"/>
+        <filter val="Guilherme Sciascia do Olival"/>
+        <filter val="Gustavo Pafume de Sa"/>
+        <filter val="Gutemberg Augusto Cruz dos Santos"/>
+        <filter val="Hamilton Cirne Fernandes Franco"/>
+        <filter val="Henry Koiti Sato"/>
+        <filter val="Iracema Ferreira Sanders"/>
+        <filter val="Livia Maria de Oliveira Lopes Costa"/>
+        <filter val="Lucas Leonardo de Castro Borges"/>
+        <filter val="Luma Alem Martins"/>
+        <filter val="Marcos Milanesi Lofrano"/>
+        <filter val="Marcos Papais Alvarenga"/>
+        <filter val="Matheus Pedro Wasem"/>
+        <filter val="Mayara Manueira da Silveira"/>
+        <filter val="Milton da Silveira Pedreira Neto"/>
+        <filter val="Natalia Nasser Ximenes"/>
+        <filter val="Natalia Solon Nery"/>
+        <filter val="Patricia Mayumi Kurihara"/>
+        <filter val="Paulo Antonio Oldani Felix"/>
+        <filter val="Paulo Eduardo Silva Belluco"/>
+        <filter val="Pedro Dantas Oliveira"/>
+        <filter val="Rafael Melo De Deus"/>
+        <filter val="Raquel Vassao Araujo"/>
+        <filter val="Renato de Lima Azambuja"/>
+        <filter val="Ronaldo Maciel Dias"/>
+        <filter val="Sasha Rubim Rocha Bender"/>
+        <filter val="Thales Henrique Viana Azevedo"/>
+        <filter val="Thiago Santos Nascimento"/>
+        <filter val="Wilson Marques Ramos Junior"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
